--- a/Исп_2_Этап/Расчеты_2_Этап.xlsx
+++ b/Исп_2_Этап/Расчеты_2_Этап.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8655" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Грунт" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="134">
   <si>
     <t>Наименование работ</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Вычисления, Calculation     Длина , м</t>
+  </si>
+  <si>
+    <t>Тип 1</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1494,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1502,39 +1505,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1544,17 +1547,71 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1571,15 +1628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1593,51 +1641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1954,46 +1957,46 @@
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="9" width="5.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="12" width="5.33203125" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" customWidth="1"/>
-    <col min="16" max="16" width="5.5546875" customWidth="1"/>
-    <col min="17" max="18" width="12.6640625" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="5.5703125" customWidth="1"/>
+    <col min="17" max="18" width="12.7109375" customWidth="1"/>
     <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="23" customWidth="1"/>
-    <col min="22" max="22" width="25.6640625" customWidth="1"/>
-    <col min="23" max="23" width="37.109375" customWidth="1"/>
+    <col min="22" max="22" width="25.7109375" customWidth="1"/>
+    <col min="23" max="23" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="35"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="202" t="s">
+      <c r="D1" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="20" t="s">
         <v>21</v>
@@ -2010,12 +2013,12 @@
       <c r="U1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="198" t="s">
+      <c r="V1" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="198"/>
-    </row>
-    <row r="2" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="205"/>
+    </row>
+    <row r="2" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -2061,7 +2064,7 @@
       </c>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -2118,8 +2121,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="205">
+    <row r="4" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="202">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2195,8 +2198,8 @@
         <v>31.519999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="206"/>
+    <row r="5" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="203"/>
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>70.756000000000029</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2328,24 +2331,24 @@
         <v>102.27600000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="35"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="20" t="s">
         <v>21</v>
@@ -2362,12 +2365,12 @@
       <c r="U7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="198" t="s">
+      <c r="V7" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="198"/>
-    </row>
-    <row r="8" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="205"/>
+    </row>
+    <row r="8" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
@@ -2413,7 +2416,7 @@
       </c>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -2470,8 +2473,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="204">
+    <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2549,8 +2552,8 @@
         <v>113.65600000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="204"/>
+    <row r="11" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="198"/>
       <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
@@ -2624,7 +2627,7 @@
         <v>38.924000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -2679,24 +2682,24 @@
         <v>152.58000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="35"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="202" t="s">
+      <c r="D13" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="202"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="20" t="s">
         <v>21</v>
@@ -2713,12 +2716,12 @@
       <c r="U13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V13" s="198" t="s">
+      <c r="V13" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="W13" s="198"/>
-    </row>
-    <row r="14" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="205"/>
+    </row>
+    <row r="14" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
@@ -2764,7 +2767,7 @@
       </c>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -2821,8 +2824,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="204">
+    <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="198">
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2901,8 +2904,8 @@
         <v>90.192000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
+    <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="198"/>
       <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
@@ -2976,8 +2979,8 @@
         <v>37.604000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
+    <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
       <c r="B18" s="13" t="s">
         <v>4</v>
       </c>
@@ -3053,8 +3056,8 @@
         <v>27.500000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="204"/>
+    <row r="19" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="198"/>
       <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>87.027999999999992</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3185,24 +3188,24 @@
         <v>242.32400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="35"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="203" t="s">
+      <c r="D21" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
-      <c r="O21" s="203"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
+      <c r="L21" s="206"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="206"/>
+      <c r="O21" s="206"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="20" t="s">
         <v>21</v>
@@ -3219,12 +3222,12 @@
       <c r="U21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V21" s="198" t="s">
+      <c r="V21" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="W21" s="198"/>
-    </row>
-    <row r="22" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W21" s="205"/>
+    </row>
+    <row r="22" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -3270,7 +3273,7 @@
       </c>
       <c r="X22" s="1"/>
     </row>
-    <row r="23" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -3327,8 +3330,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="204">
+    <row r="24" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3407,8 +3410,8 @@
         <v>157.85199999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="204"/>
+    <row r="25" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="198"/>
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
@@ -3484,8 +3487,8 @@
         <v>47.072000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="204"/>
+    <row r="26" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="198"/>
       <c r="B26" s="13" t="s">
         <v>4</v>
       </c>
@@ -3561,7 +3564,7 @@
         <v>110.55200000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3616,7 +3619,7 @@
         <v>315.476</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3641,7 +3644,7 @@
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
     </row>
-    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3698,22 +3701,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:N22"/>
@@ -3726,6 +3713,22 @@
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="D21:O21"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:N23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
@@ -3737,35 +3740,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="197"/>
       <c r="B2" s="5"/>
       <c r="C2" s="197"/>
@@ -3780,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="197" t="s">
         <v>19</v>
       </c>
@@ -3801,11 +3804,11 @@
       </c>
       <c r="G3" s="197"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="204">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="198">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3827,9 +3830,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="198"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3845,7 +3848,7 @@
       </c>
       <c r="G5" s="208"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3854,18 +3857,18 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="210" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="197"/>
       <c r="B8" s="5"/>
       <c r="C8" s="197"/>
@@ -3880,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="197" t="s">
         <v>19</v>
       </c>
@@ -3901,11 +3904,11 @@
       </c>
       <c r="G9" s="197"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="204">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3927,9 +3930,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
-      <c r="B11" s="207"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="198"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -3946,7 +3949,7 @@
       </c>
       <c r="G11" s="208"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3955,18 +3958,18 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="197"/>
       <c r="B14" s="5"/>
       <c r="C14" s="197"/>
@@ -3981,7 +3984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="197" t="s">
         <v>19</v>
       </c>
@@ -4002,11 +4005,11 @@
       </c>
       <c r="G15" s="197"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="204">
-        <v>3</v>
-      </c>
-      <c r="B16" s="207" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="198">
+        <v>3</v>
+      </c>
+      <c r="B16" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -4028,9 +4031,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="198"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -4047,9 +4050,9 @@
       </c>
       <c r="G17" s="208"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="207"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -4066,9 +4069,9 @@
       </c>
       <c r="G18" s="208"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="198"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -4085,7 +4088,7 @@
       </c>
       <c r="G19" s="208"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4094,18 +4097,18 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="210" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="207" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="197"/>
       <c r="B22" s="5"/>
       <c r="C22" s="197"/>
@@ -4120,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="197" t="s">
         <v>19</v>
       </c>
@@ -4141,11 +4144,11 @@
       </c>
       <c r="G23" s="197"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="204">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="209" t="s">
         <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4167,9 +4170,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="204"/>
-      <c r="B25" s="207"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -4186,9 +4189,9 @@
       </c>
       <c r="G25" s="208"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="204"/>
-      <c r="B26" s="207"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="198"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4205,10 +4208,10 @@
       </c>
       <c r="G26" s="208"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="36"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="8">
         <f>SUM(E4:E26)</f>
         <v>408.1</v>
@@ -4217,8 +4220,11 @@
         <f>SUM(G4:G26)</f>
         <v>836</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E29" s="36"/>
     </row>
   </sheetData>
@@ -4256,32 +4262,32 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="7" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-    </row>
-    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+    </row>
+    <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -4302,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -4331,11 +4337,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="205">
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="202">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4359,9 +4365,9 @@
         <v>4.8600000000000012</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="209"/>
-      <c r="B5" s="207"/>
+    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="212"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4380,9 +4386,9 @@
       <c r="H5" s="10"/>
       <c r="I5" s="208"/>
     </row>
-    <row r="6" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="209"/>
-      <c r="B6" s="207" t="s">
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="212"/>
+      <c r="B6" s="209" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4406,9 +4412,9 @@
         <v>4.556</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207"/>
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="203"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -4427,7 +4433,7 @@
       </c>
       <c r="I7" s="208"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4441,20 +4447,20 @@
         <v>9.4160000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="210" t="s">
+    <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-    </row>
-    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+    </row>
+    <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
@@ -4475,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -4504,11 +4510,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="205">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="202">
         <v>2</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="209" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4527,14 +4533,14 @@
         <v>2.1600000000000006</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="211">
+      <c r="I12" s="210">
         <f>SUM(G12:G13)</f>
         <v>5.4000000000000021</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="209"/>
-      <c r="B13" s="207"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="212"/>
+      <c r="B13" s="209"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -4551,11 +4557,11 @@
         <v>3.2400000000000011</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="212"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="209"/>
-      <c r="B14" s="207" t="s">
+      <c r="I13" s="211"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="212"/>
+      <c r="B14" s="209" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4579,9 +4585,9 @@
         <v>6.6300000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="206"/>
-      <c r="B15" s="207"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="203"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -4600,7 +4606,7 @@
       </c>
       <c r="I15" s="208"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4614,20 +4620,20 @@
         <v>12.030000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="210" t="s">
+    <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-    </row>
-    <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+    </row>
+    <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
@@ -4648,7 +4654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -4677,11 +4683,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="205">
-        <v>3</v>
-      </c>
-      <c r="B20" s="207" t="s">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="202">
+        <v>3</v>
+      </c>
+      <c r="B20" s="209" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -4705,9 +4711,9 @@
         <v>6.4800000000000022</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="209"/>
-      <c r="B21" s="207"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="212"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
@@ -4726,9 +4732,9 @@
       <c r="H21" s="10"/>
       <c r="I21" s="208"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="209"/>
-      <c r="B22" s="207"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="212"/>
+      <c r="B22" s="209"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
@@ -4747,9 +4753,9 @@
       <c r="H22" s="10"/>
       <c r="I22" s="208"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="209"/>
-      <c r="B23" s="207"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="212"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -4768,9 +4774,9 @@
       <c r="H23" s="10"/>
       <c r="I23" s="208"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="209"/>
-      <c r="B24" s="207" t="s">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="212"/>
+      <c r="B24" s="209" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4797,9 +4803,9 @@
         <v>11.832000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="209"/>
-      <c r="B25" s="207"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="212"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -4818,9 +4824,9 @@
       </c>
       <c r="I25" s="208"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="209"/>
-      <c r="B26" s="207"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="212"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4839,9 +4845,9 @@
       </c>
       <c r="I26" s="208"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="203"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4860,7 +4866,7 @@
       </c>
       <c r="I27" s="208"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -4874,20 +4880,20 @@
         <v>18.312000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="210" t="s">
+    <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
-    </row>
-    <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+    </row>
+    <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
@@ -4908,7 +4914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -4937,11 +4943,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="205">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="202">
         <v>4</v>
       </c>
-      <c r="B32" s="207" t="s">
+      <c r="B32" s="209" t="s">
         <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4965,9 +4971,9 @@
         <v>15.660000000000004</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="209"/>
-      <c r="B33" s="207"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="212"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -4986,9 +4992,9 @@
       <c r="H33" s="10"/>
       <c r="I33" s="208"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="209"/>
-      <c r="B34" s="207"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="212"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -5007,9 +5013,9 @@
       <c r="H34" s="10"/>
       <c r="I34" s="208"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="209"/>
-      <c r="B35" s="207" t="s">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="212"/>
+      <c r="B35" s="209" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -5033,9 +5039,9 @@
         <v>8.6700000000000017</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="209"/>
-      <c r="B36" s="207"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="212"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -5054,9 +5060,9 @@
       </c>
       <c r="I36" s="208"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="203"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -5075,7 +5081,7 @@
       </c>
       <c r="I37" s="208"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -5089,8 +5095,8 @@
         <v>24.330000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="12">
         <f>SUM(E4:E34)</f>
         <v>60</v>
@@ -5104,7 +5110,7 @@
         <v>64.088000000000008</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I43" s="185">
         <f>I40-31.69</f>
         <v>32.39800000000001</v>
@@ -5112,6 +5118,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="B4:B5"/>
@@ -5127,15 +5142,6 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -5153,32 +5159,32 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+    </row>
+    <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="5"/>
       <c r="C2" s="38"/>
@@ -5199,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
@@ -5226,11 +5232,11 @@
       </c>
       <c r="I3" s="38"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="205">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="202">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5254,9 +5260,9 @@
         <v>1.8720000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="209"/>
-      <c r="B5" s="207"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="212"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5275,9 +5281,9 @@
       <c r="H5" s="10"/>
       <c r="I5" s="208"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="209"/>
-      <c r="B6" s="207" t="s">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="212"/>
+      <c r="B6" s="209" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5298,9 +5304,9 @@
         <v>13.668000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="203"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -5319,7 +5325,7 @@
       </c>
       <c r="I7" s="208"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="144"/>
       <c r="B8" s="145"/>
       <c r="C8" s="146"/>
@@ -5339,20 +5345,20 @@
         <v>15.540000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="210" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-    </row>
-    <row r="10" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+    </row>
+    <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
       <c r="B10" s="5"/>
       <c r="C10" s="38"/>
@@ -5373,7 +5379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>19</v>
       </c>
@@ -5400,8 +5406,8 @@
       </c>
       <c r="I11" s="38"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="205">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="202">
         <v>2</v>
       </c>
       <c r="B12" s="213" t="s">
@@ -5428,8 +5434,8 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="209"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="212"/>
       <c r="B13" s="215"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -5449,8 +5455,8 @@
       <c r="H13" s="10"/>
       <c r="I13" s="208"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="209"/>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="212"/>
       <c r="B14" s="213" t="s">
         <v>105</v>
       </c>
@@ -5475,8 +5481,8 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="206"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="203"/>
       <c r="B15" s="215"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -5496,7 +5502,7 @@
       </c>
       <c r="I15" s="208"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="144"/>
       <c r="B16" s="145"/>
       <c r="C16" s="146"/>
@@ -5516,20 +5522,20 @@
         <v>21.97</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="210" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-    </row>
-    <row r="18" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
+    </row>
+    <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="5"/>
       <c r="C18" s="38"/>
@@ -5550,7 +5556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>19</v>
       </c>
@@ -5577,8 +5583,8 @@
       </c>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="205">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="202">
         <v>3</v>
       </c>
       <c r="B20" s="213" t="s">
@@ -5605,8 +5611,8 @@
         <v>3.1440000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="209"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="212"/>
       <c r="B21" s="214"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
@@ -5626,8 +5632,8 @@
       <c r="H21" s="10"/>
       <c r="I21" s="208"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="209"/>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="212"/>
       <c r="B22" s="214"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -5647,8 +5653,8 @@
       <c r="H22" s="10"/>
       <c r="I22" s="208"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="209"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="212"/>
       <c r="B23" s="215"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -5668,9 +5674,9 @@
       <c r="H23" s="10"/>
       <c r="I23" s="208"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="209"/>
-      <c r="B24" s="207" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="212"/>
+      <c r="B24" s="209" t="s">
         <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5694,9 +5700,9 @@
         <v>35.496000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="209"/>
-      <c r="B25" s="207"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="212"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -5715,9 +5721,9 @@
       </c>
       <c r="I25" s="208"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="209"/>
-      <c r="B26" s="207"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="212"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -5736,9 +5742,9 @@
       </c>
       <c r="I26" s="208"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="203"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -5757,7 +5763,7 @@
       </c>
       <c r="I27" s="208"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="144"/>
       <c r="B28" s="145"/>
       <c r="C28" s="146"/>
@@ -5777,20 +5783,20 @@
         <v>38.64</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="210" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
-    </row>
-    <row r="30" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+    </row>
+    <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="5"/>
       <c r="C30" s="38"/>
@@ -5811,7 +5817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>19</v>
       </c>
@@ -5838,11 +5844,11 @@
       </c>
       <c r="I31" s="38"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="205">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="202">
         <v>4</v>
       </c>
-      <c r="B32" s="207" t="s">
+      <c r="B32" s="209" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -5866,9 +5872,9 @@
         <v>6.032</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="209"/>
-      <c r="B33" s="207"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="212"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -5887,9 +5893,9 @@
       <c r="H33" s="10"/>
       <c r="I33" s="208"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="209"/>
-      <c r="B34" s="207"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="212"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -5908,9 +5914,9 @@
       <c r="H34" s="10"/>
       <c r="I34" s="208"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="209"/>
-      <c r="B35" s="207" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="212"/>
+      <c r="B35" s="209" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -5934,9 +5940,9 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="209"/>
-      <c r="B36" s="207"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="212"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -5955,9 +5961,9 @@
       </c>
       <c r="I36" s="208"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="203"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -5976,7 +5982,7 @@
       </c>
       <c r="I37" s="208"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="143">
@@ -5992,14 +5998,14 @@
         <v>32.042000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="151"/>
     </row>
-    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="152">
         <f>SUM(E4:E34)</f>
         <v>60</v>
@@ -6023,6 +6029,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="I32:I34"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A29:I29"/>
@@ -6039,14 +6053,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="A9:I9"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="I32:I34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
@@ -6064,29 +6070,29 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="8" width="22.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="8" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -6104,7 +6110,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -6130,11 +6136,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="205">
+    <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="202">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6154,9 +6160,9 @@
       </c>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="209"/>
-      <c r="B5" s="207"/>
+    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="212"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6174,9 +6180,9 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="209"/>
-      <c r="B6" s="207" t="s">
+    <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="212"/>
+      <c r="B6" s="209" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6196,9 +6202,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207"/>
+    <row r="7" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="203"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>13.668000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -6232,19 +6238,19 @@
         <v>13.668000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="210" t="s">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-    </row>
-    <row r="10" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="5"/>
       <c r="C10" s="39"/>
@@ -6262,7 +6268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>19</v>
       </c>
@@ -6288,11 +6294,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="205">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="202">
         <v>2</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="209" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6312,9 +6318,9 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="209"/>
-      <c r="B13" s="207"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="212"/>
+      <c r="B13" s="209"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -6332,9 +6338,9 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="209"/>
-      <c r="B14" s="207" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="212"/>
+      <c r="B14" s="209" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6354,9 +6360,9 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="206"/>
-      <c r="B15" s="207"/>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="203"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -6374,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6390,19 +6396,19 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="210" t="s">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-    </row>
-    <row r="18" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="5"/>
       <c r="C18" s="39"/>
@@ -6420,7 +6426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>19</v>
       </c>
@@ -6446,11 +6452,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="205">
-        <v>3</v>
-      </c>
-      <c r="B20" s="207" t="s">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="202">
+        <v>3</v>
+      </c>
+      <c r="B20" s="209" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6470,9 +6476,9 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="209"/>
-      <c r="B21" s="207"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="212"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
@@ -6490,9 +6496,9 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="209"/>
-      <c r="B22" s="207"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="212"/>
+      <c r="B22" s="209"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
@@ -6510,9 +6516,9 @@
       </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="209"/>
-      <c r="B23" s="207"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="212"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -6530,9 +6536,9 @@
       </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="209"/>
-      <c r="B24" s="207" t="s">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="212"/>
+      <c r="B24" s="209" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6552,9 +6558,9 @@
         <v>15.198</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="209"/>
-      <c r="B25" s="207"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="212"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -6572,9 +6578,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="209"/>
-      <c r="B26" s="207"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="212"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -6592,9 +6598,9 @@
         <v>5.9669999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="203"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>14.331000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -6628,19 +6634,19 @@
         <v>35.496000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="210" t="s">
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-    </row>
-    <row r="30" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+    </row>
+    <row r="30" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="5"/>
       <c r="C30" s="39"/>
@@ -6658,7 +6664,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>19</v>
       </c>
@@ -6684,11 +6690,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="205">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="202">
         <v>4</v>
       </c>
-      <c r="B32" s="207" t="s">
+      <c r="B32" s="209" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6708,9 +6714,9 @@
       </c>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="209"/>
-      <c r="B33" s="207"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="212"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -6728,9 +6734,9 @@
       </c>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="209"/>
-      <c r="B34" s="207"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="212"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -6748,9 +6754,9 @@
       </c>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="209"/>
-      <c r="B35" s="207" t="s">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="212"/>
+      <c r="B35" s="209" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -6770,9 +6776,9 @@
         <v>16.167000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="209"/>
-      <c r="B36" s="207"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="212"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -6790,9 +6796,9 @@
         <v>4.9980000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="203"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -6810,7 +6816,7 @@
         <v>4.8449999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -6826,8 +6832,8 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="12">
         <f>SUM(E4:E34)</f>
         <v>60</v>
@@ -6847,12 +6853,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A7"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A20:A27"/>
@@ -6863,6 +6863,12 @@
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -6880,31 +6886,31 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="198" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -6920,12 +6926,12 @@
       <c r="G2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="198" t="s">
+      <c r="H2" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="198"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="205"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -6948,7 +6954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -6975,8 +6981,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="216">
+    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="219">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7011,8 +7017,8 @@
         <v>31.52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="216"/>
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="219"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7045,7 +7051,7 @@
         <v>70.756000000000029</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="63" t="s">
         <v>58</v>
@@ -7079,7 +7085,7 @@
         <v>102.27600000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -7090,20 +7096,20 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="217" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="218"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="219"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="217"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="218"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7119,12 +7125,12 @@
       <c r="G10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="198" t="s">
+      <c r="H10" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="198"/>
-    </row>
-    <row r="11" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="205"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -7147,7 +7153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -7174,8 +7180,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="216">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="219">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7210,8 +7216,8 @@
         <v>113.65600000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="216"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="219"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7244,7 +7250,7 @@
         <v>38.924000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="60"/>
       <c r="B15" s="63" t="s">
         <v>58</v>
@@ -7278,7 +7284,7 @@
         <v>152.58000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="27"/>
@@ -7289,20 +7295,20 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="198" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="205"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -7318,12 +7324,12 @@
       <c r="G18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="198" t="s">
+      <c r="H18" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="198"/>
-    </row>
-    <row r="19" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="205"/>
+    </row>
+    <row r="19" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -7346,7 +7352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -7373,8 +7379,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="216">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="219">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7409,8 +7415,8 @@
         <v>90.192000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="216"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="219"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -7443,8 +7449,8 @@
         <v>37.604000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="216"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="219"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
@@ -7477,8 +7483,8 @@
         <v>27.500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="216"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="219"/>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
@@ -7511,7 +7517,7 @@
         <v>87.027999999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="63" t="s">
         <v>58</v>
@@ -7545,7 +7551,7 @@
         <v>242.32400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -7556,20 +7562,20 @@
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="217" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
-      <c r="G27" s="218"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="219"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="217"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="218"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -7585,12 +7591,12 @@
       <c r="G28" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="198" t="s">
+      <c r="H28" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="198"/>
-    </row>
-    <row r="29" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="205"/>
+    </row>
+    <row r="29" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -7613,7 +7619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -7640,8 +7646,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="216">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="219">
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -7676,8 +7682,8 @@
         <v>157.85199999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="216"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="219"/>
       <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
@@ -7710,8 +7716,8 @@
         <v>47.072000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="216"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="219"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
@@ -7744,7 +7750,7 @@
         <v>110.55200000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="63" t="s">
         <v>58</v>
@@ -7778,7 +7784,7 @@
         <v>315.476</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -7789,7 +7795,7 @@
       <c r="H35" s="28"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30">
@@ -7823,18 +7829,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
@@ -7852,30 +7858,30 @@
       <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -7893,7 +7899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -7917,11 +7923,11 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="204">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="198">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -7947,9 +7953,9 @@
         <v>6.8580000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="198"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7970,7 +7976,7 @@
       </c>
       <c r="H5" s="208"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7980,19 +7986,19 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="210" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-    </row>
-    <row r="8" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="5"/>
       <c r="C8" s="40"/>
@@ -8010,7 +8016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>19</v>
       </c>
@@ -8034,11 +8040,11 @@
       </c>
       <c r="H9" s="40"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="204">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8064,9 +8070,9 @@
         <v>10.275000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
-      <c r="B11" s="207"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="198"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -8087,7 +8093,7 @@
       </c>
       <c r="H11" s="208"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8097,19 +8103,19 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
-    </row>
-    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
+    </row>
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="5"/>
       <c r="C14" s="40"/>
@@ -8127,7 +8133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>19</v>
       </c>
@@ -8151,11 +8157,11 @@
       </c>
       <c r="H15" s="40"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="204">
-        <v>3</v>
-      </c>
-      <c r="B16" s="207" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="198">
+        <v>3</v>
+      </c>
+      <c r="B16" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -8181,9 +8187,9 @@
         <v>16.463999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="198"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -8204,9 +8210,9 @@
       </c>
       <c r="H17" s="208"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="207"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -8227,9 +8233,9 @@
       </c>
       <c r="H18" s="208"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="198"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -8250,7 +8256,7 @@
       </c>
       <c r="H19" s="208"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -8260,19 +8266,19 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="210" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
-    </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
+    </row>
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="5"/>
       <c r="C22" s="40"/>
@@ -8290,7 +8296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>19</v>
       </c>
@@ -8314,11 +8320,11 @@
       </c>
       <c r="H23" s="40"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="204">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -8344,9 +8350,9 @@
         <v>21.137999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="204"/>
-      <c r="B25" s="207"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -8367,9 +8373,9 @@
       </c>
       <c r="H25" s="208"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="204"/>
-      <c r="B26" s="207"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="198"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -8390,10 +8396,10 @@
       </c>
       <c r="H26" s="208"/>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="36"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="8">
         <f>SUM(E4:E26)</f>
         <v>408.1</v>
@@ -8407,12 +8413,20 @@
         <v>54.734999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29" s="36"/>
       <c r="F29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="H16:H19"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -8421,14 +8435,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
@@ -8446,29 +8452,29 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -8483,7 +8489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
@@ -8504,11 +8510,11 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="204">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="198">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -8530,9 +8536,9 @@
         <v>14.094000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="198"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8548,7 +8554,7 @@
       </c>
       <c r="G5" s="208"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -8557,18 +8563,18 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="210" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="5"/>
       <c r="C8" s="40"/>
@@ -8583,7 +8589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>19</v>
       </c>
@@ -8604,11 +8610,11 @@
       </c>
       <c r="G9" s="40"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="204">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="209" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8630,9 +8636,9 @@
         <v>20.439000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
-      <c r="B11" s="207"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="198"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -8649,7 +8655,7 @@
       </c>
       <c r="G11" s="208"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -8658,18 +8664,18 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="5"/>
       <c r="C14" s="40"/>
@@ -8684,7 +8690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
         <v>19</v>
       </c>
@@ -8705,11 +8711,11 @@
       </c>
       <c r="G15" s="40"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="204">
-        <v>3</v>
-      </c>
-      <c r="B16" s="207" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="198">
+        <v>3</v>
+      </c>
+      <c r="B16" s="209" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -8731,9 +8737,9 @@
         <v>37.701000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="198"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -8750,9 +8756,9 @@
       </c>
       <c r="G17" s="208"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="207"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -8769,9 +8775,9 @@
       </c>
       <c r="G18" s="208"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="198"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -8788,7 +8794,7 @@
       </c>
       <c r="G19" s="208"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -8797,18 +8803,18 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="210" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="5"/>
       <c r="C22" s="40"/>
@@ -8823,7 +8829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="40" t="s">
         <v>19</v>
       </c>
@@ -8844,11 +8850,11 @@
       </c>
       <c r="G23" s="40"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="204">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="209" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -8870,9 +8876,9 @@
         <v>43.686000000000007</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="204"/>
-      <c r="B25" s="207"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -8889,9 +8895,9 @@
       </c>
       <c r="G25" s="208"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="204"/>
-      <c r="B26" s="207"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="198"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -8908,10 +8914,10 @@
       </c>
       <c r="G26" s="208"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="36"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="8">
         <f>SUM(E4:E26)</f>
         <v>408.1</v>
@@ -8921,11 +8927,19 @@
         <v>115.92000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -8934,14 +8948,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -8959,29 +8965,29 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-    </row>
-    <row r="2" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="197"/>
       <c r="B2" s="5"/>
       <c r="C2" s="197"/>
@@ -8996,7 +9002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="197" t="s">
         <v>19</v>
       </c>
@@ -9017,11 +9023,11 @@
       </c>
       <c r="G3" s="197"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="204">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="198">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -9043,9 +9049,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="198"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -9061,7 +9067,7 @@
       </c>
       <c r="G5" s="208"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -9070,18 +9076,18 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="210" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="197"/>
       <c r="B8" s="5"/>
       <c r="C8" s="197"/>
@@ -9096,7 +9102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="197" t="s">
         <v>19</v>
       </c>
@@ -9117,11 +9123,11 @@
       </c>
       <c r="G9" s="197"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="204">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="209" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9143,9 +9149,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
-      <c r="B11" s="207"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="198"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -9162,7 +9168,7 @@
       </c>
       <c r="G11" s="208"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -9171,18 +9177,18 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="210" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-    </row>
-    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="197"/>
       <c r="B14" s="5"/>
       <c r="C14" s="197"/>
@@ -9197,7 +9203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="197" t="s">
         <v>19</v>
       </c>
@@ -9218,11 +9224,11 @@
       </c>
       <c r="G15" s="197"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="204">
-        <v>3</v>
-      </c>
-      <c r="B16" s="207" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="198">
+        <v>3</v>
+      </c>
+      <c r="B16" s="209" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -9244,9 +9250,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="198"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -9263,9 +9269,9 @@
       </c>
       <c r="G17" s="208"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="207"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="198"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -9282,9 +9288,9 @@
       </c>
       <c r="G18" s="208"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="198"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9301,7 +9307,7 @@
       </c>
       <c r="G19" s="208"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -9310,18 +9316,18 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="210" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="197"/>
       <c r="B22" s="5"/>
       <c r="C22" s="197"/>
@@ -9336,7 +9342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="197" t="s">
         <v>19</v>
       </c>
@@ -9357,11 +9363,11 @@
       </c>
       <c r="G23" s="197"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="204">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="209" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -9383,9 +9389,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="204"/>
-      <c r="B25" s="207"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -9402,9 +9408,9 @@
       </c>
       <c r="G25" s="208"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="204"/>
-      <c r="B26" s="207"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="198"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -9421,10 +9427,10 @@
       </c>
       <c r="G26" s="208"/>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="36"/>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="8">
         <f>SUM(E4:E26)</f>
         <v>408.1</v>
@@ -9434,7 +9440,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="36"/>
     </row>
   </sheetData>
@@ -9472,41 +9478,41 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="10" width="6.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" customWidth="1"/>
-    <col min="13" max="14" width="8.6640625" customWidth="1"/>
-    <col min="15" max="15" width="32.6640625" customWidth="1"/>
-    <col min="16" max="16" width="30.88671875" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="79" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="79" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="245" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="247"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
       <c r="N1" s="69"/>
       <c r="O1" s="67" t="s">
         <v>61</v>
@@ -9516,23 +9522,23 @@
       </c>
       <c r="Q1" s="80"/>
     </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="199"/>
       <c r="B2" s="200"/>
       <c r="C2" s="200"/>
       <c r="D2" s="200"/>
       <c r="E2" s="200"/>
       <c r="F2" s="201"/>
-      <c r="G2" s="233" t="s">
+      <c r="G2" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233" t="s">
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
       <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
@@ -9548,7 +9554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
@@ -9565,16 +9571,16 @@
       <c r="F3" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="233" t="s">
+      <c r="G3" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233" t="s">
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
       <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
@@ -9587,8 +9593,8 @@
       </c>
       <c r="Q3" s="81"/>
     </row>
-    <row r="4" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="236">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="229">
         <v>1</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -9646,8 +9652,8 @@
         <v>11.025000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="236"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="229"/>
       <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
@@ -9702,7 +9708,7 @@
         <v>105.83500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -9734,41 +9740,41 @@
         <v>116.86000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
       <c r="N7" s="73"/>
       <c r="O7" s="83"/>
       <c r="P7" s="82"/>
       <c r="R7" s="9"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="234" t="s">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="234"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="228"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
       <c r="N8" s="74"/>
       <c r="O8" s="67" t="s">
         <v>61</v>
@@ -9778,23 +9784,23 @@
       </c>
       <c r="R8" s="9"/>
     </row>
-    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="225"/>
-      <c r="B9" s="226"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="238" t="s">
+    <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="220"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238" t="s">
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="231"/>
       <c r="M9" s="49" t="s">
         <v>15</v>
       </c>
@@ -9807,7 +9813,7 @@
       </c>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>19</v>
       </c>
@@ -9823,14 +9829,14 @@
       <c r="F10" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="238" t="s">
+      <c r="G10" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="231"/>
+      <c r="L10" s="231"/>
       <c r="M10" s="49" t="s">
         <v>8</v>
       </c>
@@ -9843,8 +9849,8 @@
       </c>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="236">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="229">
         <v>2</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -9906,8 +9912,8 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="236"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="229"/>
       <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
@@ -9963,7 +9969,7 @@
         <v>14.834999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -9994,41 +10000,41 @@
         <v>241.12</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
-      <c r="B14" s="237"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="230"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="230"/>
+      <c r="M14" s="230"/>
       <c r="N14" s="73"/>
       <c r="O14" s="83"/>
       <c r="P14" s="82"/>
       <c r="R14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="234" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="228"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="228"/>
+      <c r="M15" s="228"/>
       <c r="N15" s="74"/>
       <c r="O15" s="67" t="s">
         <v>61</v>
@@ -10038,23 +10044,23 @@
       </c>
       <c r="R15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="225"/>
-      <c r="B16" s="226"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="238" t="s">
+    <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="220"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238" t="s">
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="231"/>
+      <c r="L16" s="231"/>
       <c r="M16" s="49" t="s">
         <v>15</v>
       </c>
@@ -10067,7 +10073,7 @@
       </c>
       <c r="R16" s="9"/>
     </row>
-    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>19</v>
       </c>
@@ -10084,14 +10090,14 @@
       <c r="F17" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="238" t="s">
+      <c r="G17" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="231"/>
       <c r="M17" s="49" t="s">
         <v>8</v>
       </c>
@@ -10104,8 +10110,8 @@
       </c>
       <c r="R17" s="9"/>
     </row>
-    <row r="18" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="236">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="229">
         <v>3</v>
       </c>
       <c r="B18" s="111" t="s">
@@ -10163,8 +10169,8 @@
         <v>178.893</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="236"/>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="229"/>
       <c r="B19" s="111" t="s">
         <v>13</v>
       </c>
@@ -10220,8 +10226,8 @@
         <v>36.156999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="236"/>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="229"/>
       <c r="B20" s="111" t="s">
         <v>16</v>
       </c>
@@ -10277,8 +10283,8 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="236"/>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="229"/>
       <c r="B21" s="111" t="s">
         <v>17</v>
       </c>
@@ -10334,7 +10340,7 @@
         <v>149.87599999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -10365,41 +10371,41 @@
         <v>396.17599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
-      <c r="B23" s="237"/>
-      <c r="C23" s="237"/>
-      <c r="D23" s="237"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="237"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="237"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="230"/>
+      <c r="M23" s="230"/>
       <c r="N23" s="73"/>
       <c r="O23" s="83"/>
       <c r="P23" s="82"/>
       <c r="R23" s="9"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="239" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="234"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="228"/>
+      <c r="M24" s="228"/>
       <c r="N24" s="74"/>
       <c r="O24" s="84" t="s">
         <v>61</v>
@@ -10409,23 +10415,23 @@
       </c>
       <c r="R24" s="9"/>
     </row>
-    <row r="25" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="155"/>
       <c r="B25" s="156"/>
       <c r="C25" s="156"/>
       <c r="D25" s="157"/>
       <c r="E25" s="157"/>
       <c r="F25" s="158"/>
-      <c r="G25" s="227" t="s">
+      <c r="G25" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="238"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="238" t="s">
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="238"/>
-      <c r="L25" s="238"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
       <c r="M25" s="49" t="s">
         <v>15</v>
       </c>
@@ -10438,7 +10444,7 @@
       </c>
       <c r="R25" s="9"/>
     </row>
-    <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="139" t="s">
         <v>19</v>
       </c>
@@ -10455,16 +10461,16 @@
       <c r="F26" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="227" t="s">
+      <c r="G26" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="238"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="238" t="s">
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="238"/>
-      <c r="L26" s="238"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="231"/>
       <c r="M26" s="49" t="s">
         <v>8</v>
       </c>
@@ -10477,8 +10483,8 @@
       </c>
       <c r="R26" s="9"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="236">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="229">
         <v>4</v>
       </c>
       <c r="B27" s="111" t="s">
@@ -10536,8 +10542,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="236"/>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="229"/>
       <c r="B28" s="111" t="s">
         <v>13</v>
       </c>
@@ -10593,8 +10599,8 @@
         <v>61.535299999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="236"/>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="229"/>
       <c r="B29" s="111" t="s">
         <v>16</v>
       </c>
@@ -10648,7 +10654,7 @@
         <v>39.487500000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -10679,7 +10685,7 @@
         <v>349.02280000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -10693,7 +10699,7 @@
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M32" s="85">
         <f>M6+M13+M22+M30</f>
         <v>250.61096000000001</v>
@@ -10712,36 +10718,36 @@
         <v>1103.1787999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O33" s="88"/>
       <c r="P33" s="88"/>
     </row>
-    <row r="34" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O34" s="243">
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O34" s="223">
         <f>O32+P32</f>
         <v>4899.8176000000003</v>
       </c>
-      <c r="P34" s="244"/>
-    </row>
-    <row r="36" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="224"/>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="92"/>
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="240" t="s">
+      <c r="D37" s="235" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="242"/>
+      <c r="E37" s="236"/>
+      <c r="F37" s="236"/>
+      <c r="G37" s="236"/>
+      <c r="H37" s="236"/>
+      <c r="I37" s="236"/>
+      <c r="J37" s="236"/>
+      <c r="K37" s="237"/>
       <c r="L37" s="93"/>
       <c r="M37" s="94"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="95"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
@@ -10756,7 +10762,7 @@
       <c r="L38" s="79"/>
       <c r="M38" s="96"/>
     </row>
-    <row r="39" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="95" t="s">
         <v>68</v>
       </c>
@@ -10799,7 +10805,7 @@
         <v>1.5150800000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="95"/>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
@@ -10814,7 +10820,7 @@
       <c r="L40" s="79"/>
       <c r="M40" s="98"/>
     </row>
-    <row r="41" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="95"/>
       <c r="B41" s="79"/>
       <c r="C41" s="66">
@@ -10856,7 +10862,7 @@
         <v>0.59387999999999985</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="95"/>
       <c r="B42" s="79"/>
       <c r="C42" s="79"/>
@@ -10871,7 +10877,7 @@
       <c r="L42" s="79"/>
       <c r="M42" s="98"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="95" t="s">
         <v>67</v>
       </c>
@@ -10891,7 +10897,7 @@
         <v>0.62400000000000011</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="95"/>
       <c r="B44" s="79"/>
       <c r="C44" s="79"/>
@@ -10906,7 +10912,7 @@
       <c r="L44" s="79"/>
       <c r="M44" s="98"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="95"/>
       <c r="B45" s="79"/>
       <c r="C45" s="79"/>
@@ -10921,7 +10927,7 @@
       <c r="L45" s="79"/>
       <c r="M45" s="98"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="95" t="s">
         <v>69</v>
       </c>
@@ -10941,7 +10947,7 @@
         <v>0.71249999999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="95"/>
       <c r="B47" s="79"/>
       <c r="C47" s="79"/>
@@ -10956,7 +10962,7 @@
       <c r="L47" s="79"/>
       <c r="M47" s="98"/>
     </row>
-    <row r="48" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="100"/>
       <c r="B48" s="101"/>
       <c r="C48" s="101"/>
@@ -10976,7 +10982,7 @@
         <v>3.4454600000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -10998,7 +11004,7 @@
         <v>0.70200000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -11041,20 +11047,20 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M55" s="43">
         <f>SUM(M51:M53)</f>
         <v>1.35</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H57" s="106">
         <v>44163</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="92"/>
       <c r="B58" s="93"/>
       <c r="C58" s="93"/>
@@ -11069,7 +11075,7 @@
       <c r="L58" s="93"/>
       <c r="M58" s="94"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="92" t="s">
         <v>74</v>
       </c>
@@ -11091,7 +11097,7 @@
         <v>5.9159999999999995</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="95"/>
       <c r="B60" s="79"/>
       <c r="C60" s="103" t="s">
@@ -11111,7 +11117,7 @@
         <v>1.2480000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="95"/>
       <c r="B61" s="79"/>
       <c r="C61" s="79" t="s">
@@ -11131,7 +11137,7 @@
         <v>0.89000000000000012</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="100"/>
       <c r="B62" s="101"/>
       <c r="C62" s="101"/>
@@ -11149,7 +11155,7 @@
         <v>8.0540000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -11161,30 +11167,30 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
-      <c r="E68" s="235" t="s">
+      <c r="E68" s="233" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="235"/>
-      <c r="G68" s="235"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
-    </row>
-    <row r="69" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="230" t="s">
+      <c r="F68" s="233"/>
+      <c r="G68" s="233"/>
+      <c r="H68" s="233"/>
+      <c r="I68" s="233"/>
+      <c r="J68" s="233"/>
+    </row>
+    <row r="69" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="245" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="228" t="s">
+      <c r="C69" s="243" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="131">
@@ -11225,12 +11231,12 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="231"/>
+    <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="246"/>
       <c r="B70" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="229"/>
+      <c r="C70" s="244"/>
       <c r="D70" s="131" t="s">
         <v>91</v>
       </c>
@@ -11247,8 +11253,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="232"/>
+    <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="247"/>
       <c r="B71" s="103" t="s">
         <v>84</v>
       </c>
@@ -11261,12 +11267,12 @@
       <c r="E71" s="115"/>
       <c r="F71" s="115"/>
       <c r="G71" s="115"/>
-      <c r="H71" s="223" t="s">
+      <c r="H71" s="241" t="s">
         <v>83</v>
       </c>
-      <c r="I71" s="224"/>
-      <c r="J71" s="224"/>
-      <c r="K71" s="224"/>
+      <c r="I71" s="242"/>
+      <c r="J71" s="242"/>
+      <c r="K71" s="242"/>
       <c r="L71" s="115"/>
       <c r="M71" s="116"/>
       <c r="N71" s="114">
@@ -11277,7 +11283,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="121"/>
       <c r="C72" s="122"/>
       <c r="D72" s="123"/>
@@ -11292,7 +11298,7 @@
       <c r="M72" s="124"/>
       <c r="N72" s="125"/>
     </row>
-    <row r="73" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="119" t="s">
         <v>92</v>
       </c>
@@ -11308,12 +11314,12 @@
       <c r="E73" s="115"/>
       <c r="F73" s="115"/>
       <c r="G73" s="115"/>
-      <c r="H73" s="223" t="s">
+      <c r="H73" s="241" t="s">
         <v>90</v>
       </c>
-      <c r="I73" s="224"/>
-      <c r="J73" s="224"/>
-      <c r="K73" s="224"/>
+      <c r="I73" s="242"/>
+      <c r="J73" s="242"/>
+      <c r="K73" s="242"/>
       <c r="L73" s="115"/>
       <c r="M73" s="116"/>
       <c r="N73" s="120">
@@ -11321,7 +11327,7 @@
         <v>8.0850000000000009</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="119"/>
       <c r="B74" s="118"/>
       <c r="C74" s="113"/>
@@ -11337,7 +11343,7 @@
       <c r="M74" s="116"/>
       <c r="N74" s="120"/>
     </row>
-    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="119" t="s">
         <v>81</v>
       </c>
@@ -11353,12 +11359,12 @@
       <c r="E75" s="115"/>
       <c r="F75" s="115"/>
       <c r="G75" s="115"/>
-      <c r="H75" s="223" t="s">
+      <c r="H75" s="241" t="s">
         <v>87</v>
       </c>
-      <c r="I75" s="224"/>
-      <c r="J75" s="224"/>
-      <c r="K75" s="224"/>
+      <c r="I75" s="242"/>
+      <c r="J75" s="242"/>
+      <c r="K75" s="242"/>
       <c r="L75" s="115"/>
       <c r="M75" s="116"/>
       <c r="N75" s="137"/>
@@ -11366,19 +11372,19 @@
         <v>94</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="117"/>
       <c r="N76" s="85">
         <f>SUM(N69:N75)</f>
         <v>35.719900000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G79" s="162" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B80" s="111" t="s">
         <v>17</v>
       </c>
@@ -11421,7 +11427,7 @@
         <v>40.754999999999995</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="174" t="s">
         <v>118</v>
       </c>
@@ -11439,7 +11445,7 @@
       <c r="L85" s="157"/>
       <c r="M85" s="158"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="113" t="s">
         <v>16</v>
       </c>
@@ -11481,7 +11487,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="164"/>
       <c r="C87" s="79"/>
       <c r="D87" s="79"/>
@@ -11495,7 +11501,7 @@
       <c r="L87" s="79"/>
       <c r="M87" s="169"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="167" t="s">
         <v>116</v>
       </c>
@@ -11513,7 +11519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="172" t="s">
         <v>117</v>
       </c>
@@ -11531,7 +11537,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="90" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="164"/>
       <c r="C90" s="79"/>
       <c r="D90" s="79"/>
@@ -11545,7 +11551,7 @@
       <c r="L90" s="79"/>
       <c r="M90" s="169"/>
     </row>
-    <row r="91" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="165"/>
       <c r="C91" s="166"/>
       <c r="D91" s="166"/>
@@ -11562,8 +11568,8 @@
         <v>17.074999999999999</v>
       </c>
     </row>
-    <row r="92" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="92"/>
       <c r="C93" s="93"/>
       <c r="D93" s="93"/>
@@ -11579,7 +11585,7 @@
       <c r="L93" s="93"/>
       <c r="M93" s="94"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="95"/>
       <c r="C94" s="79"/>
       <c r="D94" s="79"/>
@@ -11593,7 +11599,7 @@
       <c r="L94" s="79"/>
       <c r="M94" s="96"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="95" t="s">
         <v>72</v>
       </c>
@@ -11618,7 +11624,7 @@
         <v>3.915</v>
       </c>
     </row>
-    <row r="96" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="100"/>
       <c r="C96" s="101"/>
       <c r="D96" s="101"/>
@@ -11632,24 +11638,24 @@
       <c r="L96" s="101"/>
       <c r="M96" s="176"/>
     </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="92"/>
       <c r="C99" s="93"/>
       <c r="D99" s="93"/>
       <c r="E99" s="93"/>
-      <c r="F99" s="220" t="s">
+      <c r="F99" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="G99" s="221"/>
-      <c r="H99" s="221"/>
-      <c r="I99" s="221"/>
-      <c r="J99" s="221"/>
-      <c r="K99" s="222"/>
+      <c r="G99" s="239"/>
+      <c r="H99" s="239"/>
+      <c r="I99" s="239"/>
+      <c r="J99" s="239"/>
+      <c r="K99" s="240"/>
       <c r="L99" s="93"/>
       <c r="M99" s="94"/>
     </row>
-    <row r="100" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="178" t="s">
         <v>5</v>
       </c>
@@ -11691,8 +11697,8 @@
         <v>29.117760000000004</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B103" s="92"/>
       <c r="C103" s="93"/>
       <c r="D103" s="93"/>
@@ -11708,7 +11714,7 @@
       <c r="L103" s="93"/>
       <c r="M103" s="94"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B104" s="95"/>
       <c r="C104" s="79"/>
       <c r="D104" s="79"/>
@@ -11722,7 +11728,7 @@
       <c r="L104" s="79"/>
       <c r="M104" s="96"/>
     </row>
-    <row r="105" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -11770,7 +11776,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B106" s="192"/>
       <c r="C106" s="187"/>
       <c r="D106" s="187"/>
@@ -11784,7 +11790,7 @@
       <c r="L106" s="189"/>
       <c r="M106" s="194"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B107" s="95"/>
       <c r="C107" s="79"/>
       <c r="D107" s="79"/>
@@ -11800,7 +11806,7 @@
       <c r="L107" s="79"/>
       <c r="M107" s="96"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" s="95"/>
       <c r="C108" s="79"/>
       <c r="D108" s="79"/>
@@ -11814,7 +11820,7 @@
       <c r="L108" s="79"/>
       <c r="M108" s="96"/>
     </row>
-    <row r="109" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -11841,7 +11847,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="100"/>
       <c r="C110" s="101"/>
       <c r="D110" s="101"/>
@@ -11857,6 +11863,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F99:K99"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="O34:P34"/>
@@ -11873,29 +11902,6 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="F99:K99"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="H71:K71"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>

--- a/Исп_2_Этап/Расчеты_2_Этап.xlsx
+++ b/Исп_2_Этап/Расчеты_2_Этап.xlsx
@@ -437,7 +437,7 @@
     <t>Вычисления, Calculation     Длина , м</t>
   </si>
   <si>
-    <t>Тип 1</t>
+    <t>Тип - 1</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1494,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1505,39 +1505,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1547,6 +1547,9 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,8 +1559,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1568,6 +1583,51 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1581,66 +1641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,20 +1983,20 @@
       <c r="A1" s="14"/>
       <c r="B1" s="35"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="204" t="s">
+      <c r="D1" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="20" t="s">
         <v>21</v>
@@ -2013,10 +2013,10 @@
       <c r="U1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="205" t="s">
+      <c r="V1" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="205"/>
+      <c r="W1" s="198"/>
     </row>
     <row r="2" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202">
+      <c r="A4" s="205">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2199,7 +2199,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="203"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2335,20 +2335,20 @@
       <c r="A7" s="14"/>
       <c r="B7" s="35"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="202"/>
+      <c r="J7" s="202"/>
+      <c r="K7" s="202"/>
+      <c r="L7" s="202"/>
+      <c r="M7" s="202"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="202"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="20" t="s">
         <v>21</v>
@@ -2365,10 +2365,10 @@
       <c r="U7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="205" t="s">
+      <c r="V7" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="205"/>
+      <c r="W7" s="198"/>
     </row>
     <row r="8" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -2474,7 +2474,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="198">
+      <c r="A10" s="204">
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2553,7 +2553,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="198"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
@@ -2686,20 +2686,20 @@
       <c r="A13" s="14"/>
       <c r="B13" s="35"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="204" t="s">
+      <c r="D13" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="202"/>
+      <c r="J13" s="202"/>
+      <c r="K13" s="202"/>
+      <c r="L13" s="202"/>
+      <c r="M13" s="202"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="202"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="20" t="s">
         <v>21</v>
@@ -2716,10 +2716,10 @@
       <c r="U13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V13" s="205" t="s">
+      <c r="V13" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="W13" s="205"/>
+      <c r="W13" s="198"/>
     </row>
     <row r="14" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -2825,7 +2825,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="198">
+      <c r="A16" s="204">
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2905,7 +2905,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
@@ -2980,7 +2980,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="13" t="s">
         <v>4</v>
       </c>
@@ -3057,7 +3057,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="198"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
@@ -3192,20 +3192,20 @@
       <c r="A21" s="14"/>
       <c r="B21" s="35"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="206" t="s">
+      <c r="D21" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="206"/>
-      <c r="F21" s="206"/>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="206"/>
-      <c r="L21" s="206"/>
-      <c r="M21" s="206"/>
-      <c r="N21" s="206"/>
-      <c r="O21" s="206"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="203"/>
+      <c r="I21" s="203"/>
+      <c r="J21" s="203"/>
+      <c r="K21" s="203"/>
+      <c r="L21" s="203"/>
+      <c r="M21" s="203"/>
+      <c r="N21" s="203"/>
+      <c r="O21" s="203"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="20" t="s">
         <v>21</v>
@@ -3222,10 +3222,10 @@
       <c r="U21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V21" s="205" t="s">
+      <c r="V21" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="W21" s="205"/>
+      <c r="W21" s="198"/>
     </row>
     <row r="22" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -3331,7 +3331,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="198">
+      <c r="A24" s="204">
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3411,7 +3411,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="198"/>
+      <c r="A25" s="204"/>
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3488,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="198"/>
+      <c r="A26" s="204"/>
       <c r="B26" s="13" t="s">
         <v>4</v>
       </c>
@@ -3701,6 +3701,22 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:N22"/>
@@ -3713,22 +3729,6 @@
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="D21:O21"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:N23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
@@ -3743,7 +3743,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3758,15 +3758,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="197"/>
@@ -3805,10 +3805,10 @@
       <c r="G3" s="197"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="198">
+      <c r="A4" s="204">
         <v>1</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="207" t="s">
         <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -3831,8 +3831,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3858,15 +3858,15 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="197"/>
@@ -3905,10 +3905,10 @@
       <c r="G9" s="197"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="198">
+      <c r="A10" s="204">
         <v>2</v>
       </c>
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="207" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3931,8 +3931,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="198"/>
-      <c r="B11" s="209"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="207"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -3959,15 +3959,15 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="197"/>
@@ -4006,10 +4006,10 @@
       <c r="G15" s="197"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="198">
-        <v>3</v>
-      </c>
-      <c r="B16" s="209" t="s">
+      <c r="A16" s="204">
+        <v>3</v>
+      </c>
+      <c r="B16" s="207" t="s">
         <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -4032,8 +4032,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
-      <c r="B17" s="209"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="207"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -4051,8 +4051,8 @@
       <c r="G17" s="208"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
-      <c r="B18" s="209"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -4070,8 +4070,8 @@
       <c r="G18" s="208"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
-      <c r="B19" s="209"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="207"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -4098,15 +4098,15 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="210" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="197"/>
@@ -4145,10 +4145,10 @@
       <c r="G23" s="197"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="198">
+      <c r="A24" s="204">
         <v>4</v>
       </c>
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="207" t="s">
         <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4171,8 +4171,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="198"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -4190,8 +4190,8 @@
       <c r="G25" s="208"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="198"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4275,17 +4275,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -4338,10 +4338,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202">
+      <c r="A4" s="205">
         <v>1</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="207" t="s">
         <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -4366,8 +4366,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="212"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="209"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4387,8 +4387,8 @@
       <c r="I5" s="208"/>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="212"/>
-      <c r="B6" s="209" t="s">
+      <c r="A6" s="209"/>
+      <c r="B6" s="207" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -4413,8 +4413,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -4448,17 +4448,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="207"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4511,10 +4511,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="202">
+      <c r="A12" s="205">
         <v>2</v>
       </c>
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="207" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -4533,14 +4533,14 @@
         <v>2.1600000000000006</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="210">
+      <c r="I12" s="211">
         <f>SUM(G12:G13)</f>
         <v>5.4000000000000021</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="212"/>
-      <c r="B13" s="209"/>
+      <c r="A13" s="209"/>
+      <c r="B13" s="207"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -4557,11 +4557,11 @@
         <v>3.2400000000000011</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="211"/>
+      <c r="I13" s="212"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="212"/>
-      <c r="B14" s="209" t="s">
+      <c r="A14" s="209"/>
+      <c r="B14" s="207" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -4586,8 +4586,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="203"/>
-      <c r="B15" s="209"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="207"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -4621,17 +4621,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="207"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -4684,10 +4684,10 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="202">
-        <v>3</v>
-      </c>
-      <c r="B20" s="209" t="s">
+      <c r="A20" s="205">
+        <v>3</v>
+      </c>
+      <c r="B20" s="207" t="s">
         <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -4712,8 +4712,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="212"/>
-      <c r="B21" s="209"/>
+      <c r="A21" s="209"/>
+      <c r="B21" s="207"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
@@ -4733,8 +4733,8 @@
       <c r="I21" s="208"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="212"/>
-      <c r="B22" s="209"/>
+      <c r="A22" s="209"/>
+      <c r="B22" s="207"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
@@ -4754,8 +4754,8 @@
       <c r="I22" s="208"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="212"/>
-      <c r="B23" s="209"/>
+      <c r="A23" s="209"/>
+      <c r="B23" s="207"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -4775,8 +4775,8 @@
       <c r="I23" s="208"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="212"/>
-      <c r="B24" s="209" t="s">
+      <c r="A24" s="209"/>
+      <c r="B24" s="207" t="s">
         <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -4804,8 +4804,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="212"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="209"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +4825,8 @@
       <c r="I25" s="208"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="212"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="209"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4846,8 +4846,8 @@
       <c r="I26" s="208"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="203"/>
-      <c r="B27" s="209"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="207"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4881,17 +4881,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="207" t="s">
+      <c r="A29" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="210"/>
     </row>
     <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -4944,10 +4944,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="202">
+      <c r="A32" s="205">
         <v>4</v>
       </c>
-      <c r="B32" s="209" t="s">
+      <c r="B32" s="207" t="s">
         <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -4972,8 +4972,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="212"/>
-      <c r="B33" s="209"/>
+      <c r="A33" s="209"/>
+      <c r="B33" s="207"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -4993,8 +4993,8 @@
       <c r="I33" s="208"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="212"/>
-      <c r="B34" s="209"/>
+      <c r="A34" s="209"/>
+      <c r="B34" s="207"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -5014,8 +5014,8 @@
       <c r="I34" s="208"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="212"/>
-      <c r="B35" s="209" t="s">
+      <c r="A35" s="209"/>
+      <c r="B35" s="207" t="s">
         <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -5040,8 +5040,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="212"/>
-      <c r="B36" s="209"/>
+      <c r="A36" s="209"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -5061,8 +5061,8 @@
       <c r="I36" s="208"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="203"/>
-      <c r="B37" s="209"/>
+      <c r="A37" s="206"/>
+      <c r="B37" s="207"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -5118,15 +5118,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="B4:B5"/>
@@ -5142,6 +5133,15 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -5172,17 +5172,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
     </row>
     <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -5233,10 +5233,10 @@
       <c r="I3" s="38"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202">
+      <c r="A4" s="205">
         <v>1</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="207" t="s">
         <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -5261,8 +5261,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="212"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="209"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5282,8 +5282,8 @@
       <c r="I5" s="208"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="212"/>
-      <c r="B6" s="209" t="s">
+      <c r="A6" s="209"/>
+      <c r="B6" s="207" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -5305,8 +5305,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="203"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -5346,17 +5346,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="207"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
@@ -5407,7 +5407,7 @@
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="202">
+      <c r="A12" s="205">
         <v>2</v>
       </c>
       <c r="B12" s="213" t="s">
@@ -5435,7 +5435,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="212"/>
+      <c r="A13" s="209"/>
       <c r="B13" s="215"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -5456,7 +5456,7 @@
       <c r="I13" s="208"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="212"/>
+      <c r="A14" s="209"/>
       <c r="B14" s="213" t="s">
         <v>105</v>
       </c>
@@ -5482,7 +5482,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="203"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="215"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -5523,17 +5523,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="207"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
+      <c r="I17" s="210"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
@@ -5584,7 +5584,7 @@
       <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="202">
+      <c r="A20" s="205">
         <v>3</v>
       </c>
       <c r="B20" s="213" t="s">
@@ -5612,7 +5612,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="212"/>
+      <c r="A21" s="209"/>
       <c r="B21" s="214"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
@@ -5633,7 +5633,7 @@
       <c r="I21" s="208"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="212"/>
+      <c r="A22" s="209"/>
       <c r="B22" s="214"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -5654,7 +5654,7 @@
       <c r="I22" s="208"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="212"/>
+      <c r="A23" s="209"/>
       <c r="B23" s="215"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -5675,8 +5675,8 @@
       <c r="I23" s="208"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="212"/>
-      <c r="B24" s="209" t="s">
+      <c r="A24" s="209"/>
+      <c r="B24" s="207" t="s">
         <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -5701,8 +5701,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="212"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="209"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -5722,8 +5722,8 @@
       <c r="I25" s="208"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="212"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="209"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -5743,8 +5743,8 @@
       <c r="I26" s="208"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="203"/>
-      <c r="B27" s="209"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="207"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -5784,17 +5784,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="207" t="s">
+      <c r="A29" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="207"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="210"/>
     </row>
     <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
@@ -5845,10 +5845,10 @@
       <c r="I31" s="38"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="202">
+      <c r="A32" s="205">
         <v>4</v>
       </c>
-      <c r="B32" s="209" t="s">
+      <c r="B32" s="207" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -5873,8 +5873,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="212"/>
-      <c r="B33" s="209"/>
+      <c r="A33" s="209"/>
+      <c r="B33" s="207"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -5894,8 +5894,8 @@
       <c r="I33" s="208"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="212"/>
-      <c r="B34" s="209"/>
+      <c r="A34" s="209"/>
+      <c r="B34" s="207"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -5915,8 +5915,8 @@
       <c r="I34" s="208"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="212"/>
-      <c r="B35" s="209" t="s">
+      <c r="A35" s="209"/>
+      <c r="B35" s="207" t="s">
         <v>105</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -5941,8 +5941,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="212"/>
-      <c r="B36" s="209"/>
+      <c r="A36" s="209"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -5962,8 +5962,8 @@
       <c r="I36" s="208"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="203"/>
-      <c r="B37" s="209"/>
+      <c r="A37" s="206"/>
+      <c r="B37" s="207"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -6029,14 +6029,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="I32:I34"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A29:I29"/>
@@ -6053,6 +6045,14 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="A9:I9"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="I32:I34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
@@ -6081,16 +6081,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -6137,10 +6137,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="202">
+      <c r="A4" s="205">
         <v>1</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="207" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6161,8 +6161,8 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="212"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="209"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6181,8 +6181,8 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="212"/>
-      <c r="B6" s="209" t="s">
+      <c r="A6" s="209"/>
+      <c r="B6" s="207" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6203,8 +6203,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="203"/>
-      <c r="B7" s="209"/>
+      <c r="A7" s="206"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -6239,16 +6239,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="207" t="s">
+      <c r="A9" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="207"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
     </row>
     <row r="10" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -6295,10 +6295,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="202">
+      <c r="A12" s="205">
         <v>2</v>
       </c>
-      <c r="B12" s="209" t="s">
+      <c r="B12" s="207" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6319,8 +6319,8 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="212"/>
-      <c r="B13" s="209"/>
+      <c r="A13" s="209"/>
+      <c r="B13" s="207"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -6339,8 +6339,8 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="212"/>
-      <c r="B14" s="209" t="s">
+      <c r="A14" s="209"/>
+      <c r="B14" s="207" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -6361,8 +6361,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="203"/>
-      <c r="B15" s="209"/>
+      <c r="A15" s="206"/>
+      <c r="B15" s="207"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -6397,16 +6397,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="207"/>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="207"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="210"/>
     </row>
     <row r="18" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -6453,10 +6453,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="202">
-        <v>3</v>
-      </c>
-      <c r="B20" s="209" t="s">
+      <c r="A20" s="205">
+        <v>3</v>
+      </c>
+      <c r="B20" s="207" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6477,8 +6477,8 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="212"/>
-      <c r="B21" s="209"/>
+      <c r="A21" s="209"/>
+      <c r="B21" s="207"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
@@ -6497,8 +6497,8 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="212"/>
-      <c r="B22" s="209"/>
+      <c r="A22" s="209"/>
+      <c r="B22" s="207"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
@@ -6517,8 +6517,8 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="212"/>
-      <c r="B23" s="209"/>
+      <c r="A23" s="209"/>
+      <c r="B23" s="207"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -6537,8 +6537,8 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="212"/>
-      <c r="B24" s="209" t="s">
+      <c r="A24" s="209"/>
+      <c r="B24" s="207" t="s">
         <v>109</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -6559,8 +6559,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="212"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="209"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -6579,8 +6579,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="212"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="209"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -6599,8 +6599,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
-      <c r="B27" s="209"/>
+      <c r="A27" s="206"/>
+      <c r="B27" s="207"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -6635,16 +6635,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="207" t="s">
+      <c r="A29" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="207"/>
-      <c r="C29" s="207"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
     </row>
     <row r="30" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
@@ -6691,10 +6691,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="202">
+      <c r="A32" s="205">
         <v>4</v>
       </c>
-      <c r="B32" s="209" t="s">
+      <c r="B32" s="207" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6715,8 +6715,8 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="212"/>
-      <c r="B33" s="209"/>
+      <c r="A33" s="209"/>
+      <c r="B33" s="207"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -6735,8 +6735,8 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="212"/>
-      <c r="B34" s="209"/>
+      <c r="A34" s="209"/>
+      <c r="B34" s="207"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -6755,8 +6755,8 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="212"/>
-      <c r="B35" s="209" t="s">
+      <c r="A35" s="209"/>
+      <c r="B35" s="207" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -6777,8 +6777,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="212"/>
-      <c r="B36" s="209"/>
+      <c r="A36" s="209"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -6797,8 +6797,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="203"/>
-      <c r="B37" s="209"/>
+      <c r="A37" s="206"/>
+      <c r="B37" s="207"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -6853,6 +6853,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A20:A27"/>
@@ -6863,12 +6869,6 @@
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -6898,17 +6898,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
+      <c r="H1" s="198"/>
+      <c r="I1" s="198"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -6926,10 +6926,10 @@
       <c r="G2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="205" t="s">
+      <c r="H2" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="205"/>
+      <c r="I2" s="198"/>
     </row>
     <row r="3" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
@@ -6982,7 +6982,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="219">
+      <c r="A5" s="216">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7018,7 +7018,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="A6" s="216"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7097,17 +7097,17 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="216" t="s">
+      <c r="A9" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="217"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="217"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="217"/>
-      <c r="G9" s="217"/>
-      <c r="H9" s="217"/>
-      <c r="I9" s="218"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="219"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -7125,10 +7125,10 @@
       <c r="G10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="205" t="s">
+      <c r="H10" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="205"/>
+      <c r="I10" s="198"/>
     </row>
     <row r="11" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
@@ -7181,7 +7181,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="219">
+      <c r="A13" s="216">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7217,7 +7217,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="219"/>
+      <c r="A14" s="216"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7296,17 +7296,17 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="205" t="s">
+      <c r="A17" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="198"/>
+      <c r="H17" s="198"/>
+      <c r="I17" s="198"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -7324,10 +7324,10 @@
       <c r="G18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="205" t="s">
+      <c r="H18" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="205"/>
+      <c r="I18" s="198"/>
     </row>
     <row r="19" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
@@ -7380,7 +7380,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="219">
+      <c r="A21" s="216">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7416,7 +7416,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="219"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -7450,7 +7450,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="219"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
@@ -7484,7 +7484,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="219"/>
+      <c r="A24" s="216"/>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
@@ -7563,17 +7563,17 @@
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="216" t="s">
+      <c r="A27" s="217" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="217"/>
-      <c r="C27" s="217"/>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="217"/>
-      <c r="G27" s="217"/>
-      <c r="H27" s="217"/>
-      <c r="I27" s="218"/>
+      <c r="B27" s="218"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="219"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
@@ -7591,10 +7591,10 @@
       <c r="G28" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="205" t="s">
+      <c r="H28" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="205"/>
+      <c r="I28" s="198"/>
     </row>
     <row r="29" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
@@ -7647,7 +7647,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="219">
+      <c r="A31" s="216">
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -7683,7 +7683,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="219"/>
+      <c r="A32" s="216"/>
       <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
@@ -7717,7 +7717,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="219"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
@@ -7829,18 +7829,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
@@ -7870,16 +7870,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -7924,10 +7924,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="198">
+      <c r="A4" s="204">
         <v>1</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="207" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -7954,8 +7954,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7987,16 +7987,16 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
-      <c r="H7" s="207"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
@@ -8041,10 +8041,10 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="198">
+      <c r="A10" s="204">
         <v>2</v>
       </c>
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="207" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8071,8 +8071,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="198"/>
-      <c r="B11" s="209"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="207"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -8104,16 +8104,16 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -8158,10 +8158,10 @@
       <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="198">
-        <v>3</v>
-      </c>
-      <c r="B16" s="209" t="s">
+      <c r="A16" s="204">
+        <v>3</v>
+      </c>
+      <c r="B16" s="207" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -8188,8 +8188,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
-      <c r="B17" s="209"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="207"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -8211,8 +8211,8 @@
       <c r="H17" s="208"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
-      <c r="B18" s="209"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -8234,8 +8234,8 @@
       <c r="H18" s="208"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
-      <c r="B19" s="209"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="207"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -8267,16 +8267,16 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
-      <c r="H21" s="207"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -8321,10 +8321,10 @@
       <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="198">
+      <c r="A24" s="204">
         <v>4</v>
       </c>
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="207" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -8351,8 +8351,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="198"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -8374,8 +8374,8 @@
       <c r="H25" s="208"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="198"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -8419,6 +8419,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="H24:H26"/>
@@ -8427,14 +8435,6 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
@@ -8464,15 +8464,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -8511,10 +8511,10 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="198">
+      <c r="A4" s="204">
         <v>1</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="207" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -8537,8 +8537,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8564,15 +8564,15 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="210" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
@@ -8611,10 +8611,10 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="198">
+      <c r="A10" s="204">
         <v>2</v>
       </c>
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="207" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8637,8 +8637,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="198"/>
-      <c r="B11" s="209"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="207"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -8665,15 +8665,15 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="210" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -8712,10 +8712,10 @@
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="198">
-        <v>3</v>
-      </c>
-      <c r="B16" s="209" t="s">
+      <c r="A16" s="204">
+        <v>3</v>
+      </c>
+      <c r="B16" s="207" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -8738,8 +8738,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
-      <c r="B17" s="209"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="207"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -8757,8 +8757,8 @@
       <c r="G17" s="208"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
-      <c r="B18" s="209"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -8776,8 +8776,8 @@
       <c r="G18" s="208"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
-      <c r="B19" s="209"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="207"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -8804,15 +8804,15 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="210" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -8851,10 +8851,10 @@
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="198">
+      <c r="A24" s="204">
         <v>4</v>
       </c>
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="207" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -8877,8 +8877,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="198"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -8896,8 +8896,8 @@
       <c r="G25" s="208"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="198"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -8932,6 +8932,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="G24:G26"/>
@@ -8940,14 +8948,6 @@
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="G16:G19"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -8977,15 +8977,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="197"/>
@@ -9024,10 +9024,10 @@
       <c r="G3" s="197"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="198">
+      <c r="A4" s="204">
         <v>1</v>
       </c>
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="207" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -9050,8 +9050,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
-      <c r="B5" s="209"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="207"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -9077,15 +9077,15 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="207"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="197"/>
@@ -9124,10 +9124,10 @@
       <c r="G9" s="197"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="198">
+      <c r="A10" s="204">
         <v>2</v>
       </c>
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="207" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9150,8 +9150,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="198"/>
-      <c r="B11" s="209"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="207"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -9178,15 +9178,15 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="207" t="s">
+      <c r="A13" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="207"/>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="197"/>
@@ -9225,10 +9225,10 @@
       <c r="G15" s="197"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="198">
-        <v>3</v>
-      </c>
-      <c r="B16" s="209" t="s">
+      <c r="A16" s="204">
+        <v>3</v>
+      </c>
+      <c r="B16" s="207" t="s">
         <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -9251,8 +9251,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
-      <c r="B17" s="209"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="207"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -9270,8 +9270,8 @@
       <c r="G17" s="208"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="198"/>
-      <c r="B18" s="209"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="207"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -9289,8 +9289,8 @@
       <c r="G18" s="208"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="198"/>
-      <c r="B19" s="209"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="207"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9317,15 +9317,15 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="207" t="s">
+      <c r="A21" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="207"/>
-      <c r="C21" s="207"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="207"/>
-      <c r="G21" s="207"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="197"/>
@@ -9364,10 +9364,10 @@
       <c r="G23" s="197"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="198">
+      <c r="A24" s="204">
         <v>4</v>
       </c>
-      <c r="B24" s="209" t="s">
+      <c r="B24" s="207" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -9390,8 +9390,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="198"/>
-      <c r="B25" s="209"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="207"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -9409,8 +9409,8 @@
       <c r="G25" s="208"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="198"/>
-      <c r="B26" s="209"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -9498,21 +9498,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="245" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="227"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="247"/>
       <c r="N1" s="69"/>
       <c r="O1" s="67" t="s">
         <v>61</v>
@@ -9529,16 +9529,16 @@
       <c r="D2" s="200"/>
       <c r="E2" s="200"/>
       <c r="F2" s="201"/>
-      <c r="G2" s="232" t="s">
+      <c r="G2" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232" t="s">
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
       <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
@@ -9571,16 +9571,16 @@
       <c r="F3" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="232" t="s">
+      <c r="G3" s="233" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232" t="s">
+      <c r="H3" s="233"/>
+      <c r="I3" s="233"/>
+      <c r="J3" s="233" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
+      <c r="K3" s="233"/>
+      <c r="L3" s="233"/>
       <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
@@ -9594,7 +9594,7 @@
       <c r="Q3" s="81"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="229">
+      <c r="A4" s="236">
         <v>1</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -9653,7 +9653,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="229"/>
+      <c r="A5" s="236"/>
       <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
@@ -9742,39 +9742,39 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
-      <c r="B7" s="230"/>
-      <c r="C7" s="230"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="230"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="237"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="237"/>
+      <c r="G7" s="237"/>
+      <c r="H7" s="237"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="237"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="237"/>
+      <c r="M7" s="237"/>
       <c r="N7" s="73"/>
       <c r="O7" s="83"/>
       <c r="P7" s="82"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="228"/>
-      <c r="M8" s="228"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234"/>
+      <c r="L8" s="234"/>
+      <c r="M8" s="234"/>
       <c r="N8" s="74"/>
       <c r="O8" s="67" t="s">
         <v>61</v>
@@ -9785,22 +9785,22 @@
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="220"/>
-      <c r="B9" s="221"/>
-      <c r="C9" s="221"/>
-      <c r="D9" s="221"/>
-      <c r="E9" s="221"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="231" t="s">
+      <c r="A9" s="225"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231" t="s">
+      <c r="H9" s="238"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="231"/>
-      <c r="L9" s="231"/>
+      <c r="K9" s="238"/>
+      <c r="L9" s="238"/>
       <c r="M9" s="49" t="s">
         <v>15</v>
       </c>
@@ -9829,14 +9829,14 @@
       <c r="F10" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="231" t="s">
+      <c r="G10" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
-      <c r="J10" s="231"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="231"/>
+      <c r="H10" s="238"/>
+      <c r="I10" s="238"/>
+      <c r="J10" s="238"/>
+      <c r="K10" s="238"/>
+      <c r="L10" s="238"/>
       <c r="M10" s="49" t="s">
         <v>8</v>
       </c>
@@ -9850,7 +9850,7 @@
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="229">
+      <c r="A11" s="236">
         <v>2</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -9913,7 +9913,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="229"/>
+      <c r="A12" s="236"/>
       <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
@@ -10002,39 +10002,39 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
-      <c r="B14" s="230"/>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="230"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="230"/>
-      <c r="K14" s="230"/>
-      <c r="L14" s="230"/>
-      <c r="M14" s="230"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="237"/>
+      <c r="D14" s="237"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="237"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="237"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="237"/>
+      <c r="K14" s="237"/>
+      <c r="L14" s="237"/>
+      <c r="M14" s="237"/>
       <c r="N14" s="73"/>
       <c r="O14" s="83"/>
       <c r="P14" s="82"/>
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="228" t="s">
+      <c r="A15" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="228"/>
-      <c r="C15" s="228"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="228"/>
-      <c r="F15" s="228"/>
-      <c r="G15" s="228"/>
-      <c r="H15" s="228"/>
-      <c r="I15" s="228"/>
-      <c r="J15" s="228"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="228"/>
-      <c r="M15" s="228"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="234"/>
+      <c r="D15" s="234"/>
+      <c r="E15" s="234"/>
+      <c r="F15" s="234"/>
+      <c r="G15" s="234"/>
+      <c r="H15" s="234"/>
+      <c r="I15" s="234"/>
+      <c r="J15" s="234"/>
+      <c r="K15" s="234"/>
+      <c r="L15" s="234"/>
+      <c r="M15" s="234"/>
       <c r="N15" s="74"/>
       <c r="O15" s="67" t="s">
         <v>61</v>
@@ -10045,22 +10045,22 @@
       <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="220"/>
-      <c r="B16" s="221"/>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="222"/>
-      <c r="G16" s="231" t="s">
+      <c r="A16" s="225"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="226"/>
+      <c r="F16" s="227"/>
+      <c r="G16" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="231"/>
-      <c r="I16" s="231"/>
-      <c r="J16" s="231" t="s">
+      <c r="H16" s="238"/>
+      <c r="I16" s="238"/>
+      <c r="J16" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="231"/>
-      <c r="L16" s="231"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
       <c r="M16" s="49" t="s">
         <v>15</v>
       </c>
@@ -10090,14 +10090,14 @@
       <c r="F17" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="231" t="s">
+      <c r="G17" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="231"/>
-      <c r="I17" s="231"/>
-      <c r="J17" s="231"/>
-      <c r="K17" s="231"/>
-      <c r="L17" s="231"/>
+      <c r="H17" s="238"/>
+      <c r="I17" s="238"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
       <c r="M17" s="49" t="s">
         <v>8</v>
       </c>
@@ -10111,7 +10111,7 @@
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="229">
+      <c r="A18" s="236">
         <v>3</v>
       </c>
       <c r="B18" s="111" t="s">
@@ -10170,7 +10170,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="229"/>
+      <c r="A19" s="236"/>
       <c r="B19" s="111" t="s">
         <v>13</v>
       </c>
@@ -10227,7 +10227,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="229"/>
+      <c r="A20" s="236"/>
       <c r="B20" s="111" t="s">
         <v>16</v>
       </c>
@@ -10284,7 +10284,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="229"/>
+      <c r="A21" s="236"/>
       <c r="B21" s="111" t="s">
         <v>17</v>
       </c>
@@ -10373,39 +10373,39 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
-      <c r="B23" s="230"/>
-      <c r="C23" s="230"/>
-      <c r="D23" s="230"/>
-      <c r="E23" s="230"/>
-      <c r="F23" s="230"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="230"/>
-      <c r="K23" s="230"/>
-      <c r="L23" s="230"/>
-      <c r="M23" s="230"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="237"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="237"/>
+      <c r="L23" s="237"/>
+      <c r="M23" s="237"/>
       <c r="N23" s="73"/>
       <c r="O23" s="83"/>
       <c r="P23" s="82"/>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="234" t="s">
+      <c r="A24" s="239" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="234"/>
-      <c r="C24" s="234"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="228"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="228"/>
-      <c r="L24" s="228"/>
-      <c r="M24" s="228"/>
+      <c r="B24" s="239"/>
+      <c r="C24" s="239"/>
+      <c r="D24" s="239"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="239"/>
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="234"/>
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
       <c r="N24" s="74"/>
       <c r="O24" s="84" t="s">
         <v>61</v>
@@ -10422,16 +10422,16 @@
       <c r="D25" s="157"/>
       <c r="E25" s="157"/>
       <c r="F25" s="158"/>
-      <c r="G25" s="222" t="s">
+      <c r="G25" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="231" t="s">
+      <c r="H25" s="238"/>
+      <c r="I25" s="238"/>
+      <c r="J25" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
+      <c r="K25" s="238"/>
+      <c r="L25" s="238"/>
       <c r="M25" s="49" t="s">
         <v>15</v>
       </c>
@@ -10461,16 +10461,16 @@
       <c r="F26" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="222" t="s">
+      <c r="G26" s="227" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="231"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="231" t="s">
+      <c r="H26" s="238"/>
+      <c r="I26" s="238"/>
+      <c r="J26" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="231"/>
-      <c r="L26" s="231"/>
+      <c r="K26" s="238"/>
+      <c r="L26" s="238"/>
       <c r="M26" s="49" t="s">
         <v>8</v>
       </c>
@@ -10484,7 +10484,7 @@
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="229">
+      <c r="A27" s="236">
         <v>4</v>
       </c>
       <c r="B27" s="111" t="s">
@@ -10543,7 +10543,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="229"/>
+      <c r="A28" s="236"/>
       <c r="B28" s="111" t="s">
         <v>13</v>
       </c>
@@ -10600,7 +10600,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="229"/>
+      <c r="A29" s="236"/>
       <c r="B29" s="111" t="s">
         <v>16</v>
       </c>
@@ -10723,27 +10723,27 @@
       <c r="P33" s="88"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O34" s="223">
+      <c r="O34" s="243">
         <f>O32+P32</f>
         <v>4899.8176000000003</v>
       </c>
-      <c r="P34" s="224"/>
+      <c r="P34" s="244"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="92"/>
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="235" t="s">
+      <c r="D37" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="236"/>
-      <c r="F37" s="236"/>
-      <c r="G37" s="236"/>
-      <c r="H37" s="236"/>
-      <c r="I37" s="236"/>
-      <c r="J37" s="236"/>
-      <c r="K37" s="237"/>
+      <c r="E37" s="241"/>
+      <c r="F37" s="241"/>
+      <c r="G37" s="241"/>
+      <c r="H37" s="241"/>
+      <c r="I37" s="241"/>
+      <c r="J37" s="241"/>
+      <c r="K37" s="242"/>
       <c r="L37" s="93"/>
       <c r="M37" s="94"/>
     </row>
@@ -11174,23 +11174,23 @@
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
-      <c r="E68" s="233" t="s">
+      <c r="E68" s="235" t="s">
         <v>88</v>
       </c>
-      <c r="F68" s="233"/>
-      <c r="G68" s="233"/>
-      <c r="H68" s="233"/>
-      <c r="I68" s="233"/>
-      <c r="J68" s="233"/>
+      <c r="F68" s="235"/>
+      <c r="G68" s="235"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
+      <c r="J68" s="235"/>
     </row>
     <row r="69" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="245" t="s">
+      <c r="A69" s="230" t="s">
         <v>82</v>
       </c>
       <c r="B69" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C69" s="243" t="s">
+      <c r="C69" s="228" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="131">
@@ -11232,11 +11232,11 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="246"/>
+      <c r="A70" s="231"/>
       <c r="B70" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="244"/>
+      <c r="C70" s="229"/>
       <c r="D70" s="131" t="s">
         <v>91</v>
       </c>
@@ -11254,7 +11254,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="247"/>
+      <c r="A71" s="232"/>
       <c r="B71" s="103" t="s">
         <v>84</v>
       </c>
@@ -11267,12 +11267,12 @@
       <c r="E71" s="115"/>
       <c r="F71" s="115"/>
       <c r="G71" s="115"/>
-      <c r="H71" s="241" t="s">
+      <c r="H71" s="223" t="s">
         <v>83</v>
       </c>
-      <c r="I71" s="242"/>
-      <c r="J71" s="242"/>
-      <c r="K71" s="242"/>
+      <c r="I71" s="224"/>
+      <c r="J71" s="224"/>
+      <c r="K71" s="224"/>
       <c r="L71" s="115"/>
       <c r="M71" s="116"/>
       <c r="N71" s="114">
@@ -11314,12 +11314,12 @@
       <c r="E73" s="115"/>
       <c r="F73" s="115"/>
       <c r="G73" s="115"/>
-      <c r="H73" s="241" t="s">
+      <c r="H73" s="223" t="s">
         <v>90</v>
       </c>
-      <c r="I73" s="242"/>
-      <c r="J73" s="242"/>
-      <c r="K73" s="242"/>
+      <c r="I73" s="224"/>
+      <c r="J73" s="224"/>
+      <c r="K73" s="224"/>
       <c r="L73" s="115"/>
       <c r="M73" s="116"/>
       <c r="N73" s="120">
@@ -11359,12 +11359,12 @@
       <c r="E75" s="115"/>
       <c r="F75" s="115"/>
       <c r="G75" s="115"/>
-      <c r="H75" s="241" t="s">
+      <c r="H75" s="223" t="s">
         <v>87</v>
       </c>
-      <c r="I75" s="242"/>
-      <c r="J75" s="242"/>
-      <c r="K75" s="242"/>
+      <c r="I75" s="224"/>
+      <c r="J75" s="224"/>
+      <c r="K75" s="224"/>
       <c r="L75" s="115"/>
       <c r="M75" s="116"/>
       <c r="N75" s="137"/>
@@ -11644,14 +11644,14 @@
       <c r="C99" s="93"/>
       <c r="D99" s="93"/>
       <c r="E99" s="93"/>
-      <c r="F99" s="238" t="s">
+      <c r="F99" s="220" t="s">
         <v>122</v>
       </c>
-      <c r="G99" s="239"/>
-      <c r="H99" s="239"/>
-      <c r="I99" s="239"/>
-      <c r="J99" s="239"/>
-      <c r="K99" s="240"/>
+      <c r="G99" s="221"/>
+      <c r="H99" s="221"/>
+      <c r="I99" s="221"/>
+      <c r="J99" s="221"/>
+      <c r="K99" s="222"/>
       <c r="L99" s="93"/>
       <c r="M99" s="94"/>
     </row>
@@ -11863,13 +11863,22 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="F99:K99"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="E68:J68"/>
@@ -11886,22 +11895,13 @@
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B14:M14"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="F99:K99"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="H71:K71"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>

--- a/Исп_2_Этап/Расчеты_2_Этап.xlsx
+++ b/Исп_2_Этап/Расчеты_2_Этап.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8655" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Грунт" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Стены_Лотков" sheetId="11" r:id="rId9"/>
     <sheet name="Шпонка_Стен" sheetId="14" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="137">
   <si>
     <t>Наименование работ</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>TOTAL:</t>
-  </si>
-  <si>
-    <t>Бетонное основание лотков, B15, W6, толщ. 100 мм/Concrete bed, B15, W6, th. 100 mm</t>
   </si>
   <si>
     <t>Бетонное основание, B15, W6, толщ. 100 мм/Concrete bed, B15, W6, th. 100 mm</t>
@@ -439,11 +436,23 @@
   <si>
     <t>Тип - 1</t>
   </si>
+  <si>
+    <t>Бетонное основание, B15, B25, B30 толщ. 100 мм/Concrete bed, B15, B25, B30 th. 100 mm</t>
+  </si>
+  <si>
+    <t>Бетонное основание, B15, B30 толщ. 100 мм/Concrete bed, B15, B30 th. 100 mm</t>
+  </si>
+  <si>
+    <t>Бетонное основание лотков, B15, B25 толщ. 100 мм/Concrete bed, B15, B25 th. 100 mm</t>
+  </si>
+  <si>
+    <t>Бетонное основание лотков, B15, толщ. 100 мм/Concrete bed, B15, th. 100 mm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
@@ -1494,7 +1503,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1505,39 +1514,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -1547,17 +1556,71 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1574,15 +1637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1596,51 +1650,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,7 +1713,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1739,7 +1748,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1983,29 +1992,29 @@
       <c r="A1" s="14"/>
       <c r="B1" s="35"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="202" t="s">
+      <c r="D1" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="202"/>
-      <c r="F1" s="202"/>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="202"/>
-      <c r="J1" s="202"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="202"/>
-      <c r="N1" s="202"/>
-      <c r="O1" s="202"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R1" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="89" t="s">
         <v>97</v>
-      </c>
-      <c r="S1" s="89" t="s">
-        <v>98</v>
       </c>
       <c r="T1" s="20" t="s">
         <v>29</v>
@@ -2013,10 +2022,10 @@
       <c r="U1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="198" t="s">
+      <c r="V1" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="198"/>
+      <c r="W1" s="205"/>
     </row>
     <row r="2" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -2081,7 +2090,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="199" t="s">
         <v>11</v>
@@ -2106,7 +2115,7 @@
         <v>25</v>
       </c>
       <c r="S3" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T3" s="33" t="s">
         <v>23</v>
@@ -2122,7 +2131,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="205">
+      <c r="A4" s="202">
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -2199,7 +2208,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="206"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
@@ -2335,29 +2344,29 @@
       <c r="A7" s="14"/>
       <c r="B7" s="35"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="202" t="s">
+      <c r="D7" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="202"/>
-      <c r="I7" s="202"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-      <c r="L7" s="202"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="S7" s="89" t="s">
         <v>97</v>
-      </c>
-      <c r="S7" s="89" t="s">
-        <v>98</v>
       </c>
       <c r="T7" s="20" t="s">
         <v>29</v>
@@ -2365,10 +2374,10 @@
       <c r="U7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="198" t="s">
+      <c r="V7" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="198"/>
+      <c r="W7" s="205"/>
     </row>
     <row r="8" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -2433,7 +2442,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="199" t="s">
         <v>11</v>
@@ -2474,7 +2483,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="204">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -2553,7 +2562,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
@@ -2686,29 +2695,29 @@
       <c r="A13" s="14"/>
       <c r="B13" s="35"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="202" t="s">
+      <c r="D13" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
-      <c r="I13" s="202"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="202"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R13" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="S13" s="89" t="s">
         <v>97</v>
-      </c>
-      <c r="S13" s="89" t="s">
-        <v>98</v>
       </c>
       <c r="T13" s="20" t="s">
         <v>29</v>
@@ -2716,10 +2725,10 @@
       <c r="U13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V13" s="198" t="s">
+      <c r="V13" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="W13" s="198"/>
+      <c r="W13" s="205"/>
     </row>
     <row r="14" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -2784,7 +2793,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G15" s="199" t="s">
         <v>11</v>
@@ -2825,7 +2834,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="204">
+      <c r="A16" s="198">
         <v>3</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2905,7 +2914,7 @@
       </c>
     </row>
     <row r="17" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
+      <c r="A17" s="198"/>
       <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
@@ -2980,7 +2989,7 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="204"/>
+      <c r="A18" s="198"/>
       <c r="B18" s="13" t="s">
         <v>4</v>
       </c>
@@ -3057,7 +3066,7 @@
       </c>
     </row>
     <row r="19" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
@@ -3192,29 +3201,29 @@
       <c r="A21" s="14"/>
       <c r="B21" s="35"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="203" t="s">
+      <c r="D21" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="203"/>
-      <c r="J21" s="203"/>
-      <c r="K21" s="203"/>
-      <c r="L21" s="203"/>
-      <c r="M21" s="203"/>
-      <c r="N21" s="203"/>
-      <c r="O21" s="203"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
+      <c r="L21" s="206"/>
+      <c r="M21" s="206"/>
+      <c r="N21" s="206"/>
+      <c r="O21" s="206"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="20" t="s">
         <v>21</v>
       </c>
       <c r="R21" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="S21" s="89" t="s">
         <v>97</v>
-      </c>
-      <c r="S21" s="89" t="s">
-        <v>98</v>
       </c>
       <c r="T21" s="20" t="s">
         <v>29</v>
@@ -3222,10 +3231,10 @@
       <c r="U21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="V21" s="198" t="s">
+      <c r="V21" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="W21" s="198"/>
+      <c r="W21" s="205"/>
     </row>
     <row r="22" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -3290,7 +3299,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="199" t="s">
         <v>11</v>
@@ -3331,7 +3340,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="204">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
       <c r="B24" s="13" t="s">
@@ -3411,7 +3420,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="204"/>
+      <c r="A25" s="198"/>
       <c r="B25" s="13" t="s">
         <v>4</v>
       </c>
@@ -3488,7 +3497,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="204"/>
+      <c r="A26" s="198"/>
       <c r="B26" s="13" t="s">
         <v>4</v>
       </c>
@@ -3701,22 +3710,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="D1:O1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="V21:W21"/>
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:N22"/>
@@ -3729,6 +3722,22 @@
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="D21:O21"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="D1:O1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:N23"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
@@ -3742,7 +3751,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -3758,15 +3767,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="A1" s="207" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="197"/>
@@ -3777,7 +3786,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="197" t="s">
         <v>2</v>
@@ -3800,16 +3809,16 @@
         <v>42</v>
       </c>
       <c r="F3" s="197" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="197"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="198">
+        <v>1</v>
+      </c>
+      <c r="B4" s="209" t="s">
         <v>130</v>
-      </c>
-      <c r="G3" s="197"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="204">
-        <v>1</v>
-      </c>
-      <c r="B4" s="207" t="s">
-        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -3831,8 +3840,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="198"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -3858,15 +3867,15 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
+      <c r="A7" s="207" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="197"/>
@@ -3877,7 +3886,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="197" t="s">
         <v>2</v>
@@ -3900,16 +3909,16 @@
         <v>42</v>
       </c>
       <c r="F9" s="197" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="197"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="198">
+        <v>2</v>
+      </c>
+      <c r="B10" s="209" t="s">
         <v>130</v>
-      </c>
-      <c r="G9" s="197"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="204">
-        <v>2</v>
-      </c>
-      <c r="B10" s="207" t="s">
-        <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -3931,8 +3940,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="204"/>
-      <c r="B11" s="207"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -3959,15 +3968,15 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="210" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
+      <c r="A13" s="207" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="197"/>
@@ -3978,7 +3987,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="197" t="s">
         <v>2</v>
@@ -4001,16 +4010,16 @@
         <v>42</v>
       </c>
       <c r="F15" s="197" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="197"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="198">
+        <v>3</v>
+      </c>
+      <c r="B16" s="209" t="s">
         <v>130</v>
-      </c>
-      <c r="G15" s="197"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="204">
-        <v>3</v>
-      </c>
-      <c r="B16" s="207" t="s">
-        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -4032,8 +4041,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -4051,8 +4060,8 @@
       <c r="G17" s="208"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="204"/>
-      <c r="B18" s="207"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -4070,8 +4079,8 @@
       <c r="G18" s="208"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -4098,15 +4107,15 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="210" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="A21" s="207" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
     </row>
     <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="197"/>
@@ -4117,7 +4126,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="197" t="s">
         <v>2</v>
@@ -4140,16 +4149,16 @@
         <v>42</v>
       </c>
       <c r="F23" s="197" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="197"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="198">
+        <v>4</v>
+      </c>
+      <c r="B24" s="209" t="s">
         <v>130</v>
-      </c>
-      <c r="G23" s="197"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="204">
-        <v>4</v>
-      </c>
-      <c r="B24" s="207" t="s">
-        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -4171,8 +4180,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="204"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -4190,8 +4199,8 @@
       <c r="G25" s="208"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="204"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>836</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4275,17 +4284,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -4325,24 +4334,24 @@
         <v>22</v>
       </c>
       <c r="F3" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H3" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="205">
+      <c r="A4" s="202">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
-        <v>96</v>
+      <c r="B4" s="209" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -4366,8 +4375,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="209"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="212"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -4387,9 +4396,9 @@
       <c r="I5" s="208"/>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="209"/>
-      <c r="B6" s="207" t="s">
-        <v>101</v>
+      <c r="A6" s="212"/>
+      <c r="B6" s="209" t="s">
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -4413,8 +4422,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -4448,17 +4457,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="210" t="s">
+      <c r="A9" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
     </row>
     <row r="10" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4498,24 +4507,24 @@
         <v>22</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="57" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="205">
+      <c r="A12" s="202">
         <v>2</v>
       </c>
-      <c r="B12" s="207" t="s">
-        <v>96</v>
+      <c r="B12" s="209" t="s">
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -4533,14 +4542,14 @@
         <v>2.1600000000000006</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="211">
+      <c r="I12" s="210">
         <f>SUM(G12:G13)</f>
         <v>5.4000000000000021</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="209"/>
-      <c r="B13" s="207"/>
+      <c r="A13" s="212"/>
+      <c r="B13" s="209"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -4557,12 +4566,12 @@
         <v>3.2400000000000011</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="212"/>
+      <c r="I13" s="211"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="209"/>
-      <c r="B14" s="207" t="s">
-        <v>101</v>
+      <c r="A14" s="212"/>
+      <c r="B14" s="209" t="s">
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -4586,8 +4595,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="206"/>
-      <c r="B15" s="207"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -4621,17 +4630,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="210" t="s">
+      <c r="A17" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
     </row>
     <row r="18" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -4671,24 +4680,24 @@
         <v>22</v>
       </c>
       <c r="F19" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="57" t="s">
         <v>56</v>
       </c>
       <c r="H19" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="205">
-        <v>3</v>
-      </c>
-      <c r="B20" s="207" t="s">
-        <v>96</v>
+      <c r="A20" s="202">
+        <v>3</v>
+      </c>
+      <c r="B20" s="209" t="s">
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -4712,8 +4721,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="209"/>
-      <c r="B21" s="207"/>
+      <c r="A21" s="212"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
@@ -4733,8 +4742,8 @@
       <c r="I21" s="208"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="209"/>
-      <c r="B22" s="207"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="209"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
@@ -4754,8 +4763,8 @@
       <c r="I22" s="208"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="209"/>
-      <c r="B23" s="207"/>
+      <c r="A23" s="212"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -4775,9 +4784,9 @@
       <c r="I23" s="208"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="209"/>
-      <c r="B24" s="207" t="s">
-        <v>101</v>
+      <c r="A24" s="212"/>
+      <c r="B24" s="209" t="s">
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -4804,8 +4813,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -4825,8 +4834,8 @@
       <c r="I25" s="208"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="209"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="212"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -4846,8 +4855,8 @@
       <c r="I26" s="208"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -4881,17 +4890,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="210" t="s">
+      <c r="A29" s="207" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
@@ -4931,24 +4940,24 @@
         <v>22</v>
       </c>
       <c r="F31" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" s="57" t="s">
         <v>56</v>
       </c>
       <c r="H31" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="205">
+      <c r="A32" s="202">
         <v>4</v>
       </c>
-      <c r="B32" s="207" t="s">
-        <v>96</v>
+      <c r="B32" s="209" t="s">
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -4972,8 +4981,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="209"/>
-      <c r="B33" s="207"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -4993,8 +5002,8 @@
       <c r="I33" s="208"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="209"/>
-      <c r="B34" s="207"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -5014,9 +5023,9 @@
       <c r="I34" s="208"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="209"/>
-      <c r="B35" s="207" t="s">
-        <v>101</v>
+      <c r="A35" s="212"/>
+      <c r="B35" s="209" t="s">
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
@@ -5040,8 +5049,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="209"/>
-      <c r="B36" s="207"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -5061,8 +5070,8 @@
       <c r="I36" s="208"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+      <c r="A37" s="203"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -5118,6 +5127,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="B4:B5"/>
@@ -5133,15 +5151,6 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A29:I29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -5155,8 +5164,8 @@
   </sheetPr>
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5172,17 +5181,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
+      <c r="A1" s="207" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
     </row>
     <row r="2" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -5222,22 +5231,22 @@
         <v>22</v>
       </c>
       <c r="F3" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="202">
+        <v>1</v>
+      </c>
+      <c r="B4" s="209" t="s">
         <v>103</v>
-      </c>
-      <c r="I3" s="38"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="205">
-        <v>1</v>
-      </c>
-      <c r="B4" s="207" t="s">
-        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -5261,8 +5270,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="209"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="212"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5282,9 +5291,9 @@
       <c r="I5" s="208"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="209"/>
-      <c r="B6" s="207" t="s">
-        <v>105</v>
+      <c r="A6" s="212"/>
+      <c r="B6" s="209" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -5305,8 +5314,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -5346,17 +5355,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="210" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
+      <c r="A9" s="207" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
     </row>
     <row r="10" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="38"/>
@@ -5396,22 +5405,22 @@
         <v>22</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="38" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="202">
+        <v>2</v>
+      </c>
+      <c r="B12" s="213" t="s">
         <v>103</v>
-      </c>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="205">
-        <v>2</v>
-      </c>
-      <c r="B12" s="213" t="s">
-        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -5435,7 +5444,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="209"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="215"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -5456,9 +5465,9 @@
       <c r="I13" s="208"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="209"/>
+      <c r="A14" s="212"/>
       <c r="B14" s="213" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -5482,7 +5491,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="206"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="215"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
@@ -5523,17 +5532,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="210" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
+      <c r="A17" s="207" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="207"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
@@ -5573,22 +5582,22 @@
         <v>22</v>
       </c>
       <c r="F19" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="38" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="202">
+        <v>3</v>
+      </c>
+      <c r="B20" s="213" t="s">
         <v>103</v>
-      </c>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="205">
-        <v>3</v>
-      </c>
-      <c r="B20" s="213" t="s">
-        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -5612,7 +5621,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="209"/>
+      <c r="A21" s="212"/>
       <c r="B21" s="214"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
@@ -5633,7 +5642,7 @@
       <c r="I21" s="208"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="209"/>
+      <c r="A22" s="212"/>
       <c r="B22" s="214"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -5654,7 +5663,7 @@
       <c r="I22" s="208"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="209"/>
+      <c r="A23" s="212"/>
       <c r="B23" s="215"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -5675,9 +5684,9 @@
       <c r="I23" s="208"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="209"/>
-      <c r="B24" s="207" t="s">
-        <v>105</v>
+      <c r="A24" s="212"/>
+      <c r="B24" s="209" t="s">
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -5701,8 +5710,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -5722,8 +5731,8 @@
       <c r="I25" s="208"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="209"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="212"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -5743,8 +5752,8 @@
       <c r="I26" s="208"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -5784,17 +5793,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="210" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="210"/>
+      <c r="A29" s="207" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
@@ -5834,22 +5843,22 @@
         <v>22</v>
       </c>
       <c r="F31" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" s="38" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="202">
+        <v>4</v>
+      </c>
+      <c r="B32" s="209" t="s">
         <v>103</v>
-      </c>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="205">
-        <v>4</v>
-      </c>
-      <c r="B32" s="207" t="s">
-        <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -5873,8 +5882,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="209"/>
-      <c r="B33" s="207"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -5894,8 +5903,8 @@
       <c r="I33" s="208"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="209"/>
-      <c r="B34" s="207"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -5915,9 +5924,9 @@
       <c r="I34" s="208"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="209"/>
-      <c r="B35" s="207" t="s">
-        <v>105</v>
+      <c r="A35" s="212"/>
+      <c r="B35" s="209" t="s">
+        <v>104</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
@@ -5941,8 +5950,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="209"/>
-      <c r="B36" s="207"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -5962,8 +5971,8 @@
       <c r="I36" s="208"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+      <c r="A37" s="203"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -6029,6 +6038,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="I35:I37"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="I32:I34"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A29:I29"/>
@@ -6045,14 +6062,6 @@
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="A9:I9"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A27"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="I32:I34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
@@ -6081,16 +6090,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="A1" s="207" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
     </row>
     <row r="2" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -6104,10 +6113,10 @@
         <v>41</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" s="136" t="s">
         <v>107</v>
-      </c>
-      <c r="H2" s="136" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6127,20 +6136,20 @@
         <v>22</v>
       </c>
       <c r="F3" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="205">
+      <c r="A4" s="202">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6161,8 +6170,8 @@
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="209"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="212"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -6181,9 +6190,9 @@
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="209"/>
-      <c r="B6" s="207" t="s">
-        <v>109</v>
+      <c r="A6" s="212"/>
+      <c r="B6" s="209" t="s">
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -6203,8 +6212,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="206"/>
-      <c r="B7" s="207"/>
+      <c r="A7" s="203"/>
+      <c r="B7" s="209"/>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -6239,16 +6248,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="210" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="210"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
+      <c r="A9" s="207" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
     </row>
     <row r="10" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
@@ -6262,10 +6271,10 @@
         <v>41</v>
       </c>
       <c r="G10" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="136" t="s">
         <v>107</v>
-      </c>
-      <c r="H10" s="136" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6285,20 +6294,20 @@
         <v>22</v>
       </c>
       <c r="F11" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="205">
+      <c r="A12" s="202">
         <v>2</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="209" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -6319,8 +6328,8 @@
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="209"/>
-      <c r="B13" s="207"/>
+      <c r="A13" s="212"/>
+      <c r="B13" s="209"/>
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
@@ -6339,9 +6348,9 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="209"/>
-      <c r="B14" s="207" t="s">
-        <v>109</v>
+      <c r="A14" s="212"/>
+      <c r="B14" s="209" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -6361,8 +6370,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="206"/>
-      <c r="B15" s="207"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="209"/>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
@@ -6397,16 +6406,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="210" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="210"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
+      <c r="A17" s="207" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="207"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="207"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="207"/>
+      <c r="H17" s="207"/>
     </row>
     <row r="18" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
@@ -6420,10 +6429,10 @@
         <v>41</v>
       </c>
       <c r="G18" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="136" t="s">
         <v>107</v>
-      </c>
-      <c r="H18" s="136" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6443,20 +6452,20 @@
         <v>22</v>
       </c>
       <c r="F19" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H19" s="136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="205">
-        <v>3</v>
-      </c>
-      <c r="B20" s="207" t="s">
+      <c r="A20" s="202">
+        <v>3</v>
+      </c>
+      <c r="B20" s="209" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -6477,8 +6486,8 @@
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="209"/>
-      <c r="B21" s="207"/>
+      <c r="A21" s="212"/>
+      <c r="B21" s="209"/>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
@@ -6497,8 +6506,8 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="209"/>
-      <c r="B22" s="207"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="209"/>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
@@ -6517,8 +6526,8 @@
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="209"/>
-      <c r="B23" s="207"/>
+      <c r="A23" s="212"/>
+      <c r="B23" s="209"/>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
@@ -6537,9 +6546,9 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="209"/>
-      <c r="B24" s="207" t="s">
-        <v>109</v>
+      <c r="A24" s="212"/>
+      <c r="B24" s="209" t="s">
+        <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -6559,8 +6568,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="209"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -6579,8 +6588,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="209"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="212"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -6599,8 +6608,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="206"/>
-      <c r="B27" s="207"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="209"/>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
@@ -6635,16 +6644,16 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="210" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="210"/>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
+      <c r="A29" s="207" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
     </row>
     <row r="30" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
@@ -6658,10 +6667,10 @@
         <v>41</v>
       </c>
       <c r="G30" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="136" t="s">
         <v>107</v>
-      </c>
-      <c r="H30" s="136" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6681,20 +6690,20 @@
         <v>22</v>
       </c>
       <c r="F31" s="136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G31" s="39" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="205">
+      <c r="A32" s="202">
         <v>4</v>
       </c>
-      <c r="B32" s="207" t="s">
+      <c r="B32" s="209" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6715,8 +6724,8 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="209"/>
-      <c r="B33" s="207"/>
+      <c r="A33" s="212"/>
+      <c r="B33" s="209"/>
       <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
@@ -6735,8 +6744,8 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="209"/>
-      <c r="B34" s="207"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="209"/>
       <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
@@ -6755,9 +6764,9 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="209"/>
-      <c r="B35" s="207" t="s">
-        <v>109</v>
+      <c r="A35" s="212"/>
+      <c r="B35" s="209" t="s">
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>3</v>
@@ -6777,8 +6786,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="209"/>
-      <c r="B36" s="207"/>
+      <c r="A36" s="212"/>
+      <c r="B36" s="209"/>
       <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
@@ -6797,8 +6806,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="206"/>
-      <c r="B37" s="207"/>
+      <c r="A37" s="203"/>
+      <c r="B37" s="209"/>
       <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
@@ -6853,12 +6862,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A4:A7"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="A32:A37"/>
     <mergeCell ref="A20:A27"/>
@@ -6869,6 +6872,12 @@
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -6898,17 +6907,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="19"/>
@@ -6926,10 +6935,10 @@
       <c r="G2" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="198" t="s">
+      <c r="H2" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="198"/>
+      <c r="I2" s="205"/>
     </row>
     <row r="3" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
@@ -6982,7 +6991,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="216">
+      <c r="A5" s="219">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7018,7 +7027,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="216"/>
+      <c r="A6" s="219"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -7097,17 +7106,17 @@
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="217" t="s">
+      <c r="A9" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="218"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="219"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="217"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="217"/>
+      <c r="F9" s="217"/>
+      <c r="G9" s="217"/>
+      <c r="H9" s="217"/>
+      <c r="I9" s="218"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
@@ -7125,10 +7134,10 @@
       <c r="G10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="198" t="s">
+      <c r="H10" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="198"/>
+      <c r="I10" s="205"/>
     </row>
     <row r="11" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61"/>
@@ -7181,7 +7190,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="216">
+      <c r="A13" s="219">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7217,7 +7226,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="216"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -7296,17 +7305,17 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="205" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="198"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="205"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
@@ -7324,10 +7333,10 @@
       <c r="G18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="198" t="s">
+      <c r="H18" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="198"/>
+      <c r="I18" s="205"/>
     </row>
     <row r="19" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="61"/>
@@ -7380,7 +7389,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="216">
+      <c r="A21" s="219">
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -7416,7 +7425,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
+      <c r="A22" s="219"/>
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -7450,7 +7459,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
+      <c r="A23" s="219"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
       </c>
@@ -7484,7 +7493,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="216"/>
+      <c r="A24" s="219"/>
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
@@ -7563,17 +7572,17 @@
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="217" t="s">
+      <c r="A27" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
-      <c r="F27" s="218"/>
-      <c r="G27" s="218"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="219"/>
+      <c r="B27" s="217"/>
+      <c r="C27" s="217"/>
+      <c r="D27" s="217"/>
+      <c r="E27" s="217"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="217"/>
+      <c r="I27" s="218"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
@@ -7591,10 +7600,10 @@
       <c r="G28" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="198" t="s">
+      <c r="H28" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="198"/>
+      <c r="I28" s="205"/>
     </row>
     <row r="29" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61"/>
@@ -7647,7 +7656,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="216">
+      <c r="A31" s="219">
         <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -7683,7 +7692,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="216"/>
+      <c r="A32" s="219"/>
       <c r="B32" s="2" t="s">
         <v>13</v>
       </c>
@@ -7717,7 +7726,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="216"/>
+      <c r="A33" s="219"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
@@ -7829,18 +7838,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
@@ -7854,8 +7863,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7870,16 +7879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
+      <c r="A1" s="207" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
     </row>
     <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -7924,10 +7933,10 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="204">
+      <c r="A4" s="198">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -7954,8 +7963,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="198"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7986,17 +7995,17 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="207" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
+      <c r="H7" s="207"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
@@ -8041,10 +8050,10 @@
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="204">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8071,8 +8080,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="204"/>
-      <c r="B11" s="207"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -8103,17 +8112,17 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="210" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="207" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
     </row>
     <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -8158,10 +8167,10 @@
       <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="204">
-        <v>3</v>
-      </c>
-      <c r="B16" s="207" t="s">
+      <c r="A16" s="198">
+        <v>3</v>
+      </c>
+      <c r="B16" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -8188,8 +8197,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -8211,8 +8220,8 @@
       <c r="H17" s="208"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="204"/>
-      <c r="B18" s="207"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -8234,8 +8243,8 @@
       <c r="H18" s="208"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -8267,16 +8276,16 @@
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="210" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
+      <c r="A21" s="207" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
+      <c r="H21" s="207"/>
     </row>
     <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -8321,10 +8330,10 @@
       <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="204">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="209" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -8351,8 +8360,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="204"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -8374,8 +8383,8 @@
       <c r="H25" s="208"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="204"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -8419,6 +8428,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="H16:H19"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -8427,14 +8444,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="H16:H19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
@@ -8464,15 +8473,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="A1" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
@@ -8511,10 +8520,10 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="204">
+      <c r="A4" s="198">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="209" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -8537,8 +8546,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="198"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -8564,15 +8573,15 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
+      <c r="A7" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
@@ -8611,10 +8620,10 @@
       <c r="G9" s="40"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="204">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="209" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8637,8 +8646,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="204"/>
-      <c r="B11" s="207"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -8665,15 +8674,15 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="210" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
+      <c r="A13" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
@@ -8712,10 +8721,10 @@
       <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="204">
-        <v>3</v>
-      </c>
-      <c r="B16" s="207" t="s">
+      <c r="A16" s="198">
+        <v>3</v>
+      </c>
+      <c r="B16" s="209" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -8738,8 +8747,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -8757,8 +8766,8 @@
       <c r="G17" s="208"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="204"/>
-      <c r="B18" s="207"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -8776,8 +8785,8 @@
       <c r="G18" s="208"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -8804,15 +8813,15 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="210" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="A21" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
@@ -8851,10 +8860,10 @@
       <c r="G23" s="40"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="204">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="209" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -8877,8 +8886,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="204"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -8896,8 +8905,8 @@
       <c r="G25" s="208"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="204"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -8932,6 +8941,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -8940,14 +8957,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
@@ -8977,15 +8986,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
+      <c r="A1" s="207" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="197"/>
@@ -8996,7 +9005,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G2" s="197" t="s">
         <v>2</v>
@@ -9019,16 +9028,16 @@
         <v>42</v>
       </c>
       <c r="F3" s="197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="197"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="204">
+      <c r="A4" s="198">
         <v>1</v>
       </c>
-      <c r="B4" s="207" t="s">
-        <v>128</v>
+      <c r="B4" s="209" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -9050,8 +9059,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="204"/>
-      <c r="B5" s="207"/>
+      <c r="A5" s="198"/>
+      <c r="B5" s="209"/>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -9077,15 +9086,15 @@
       <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="210" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="210"/>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
+      <c r="A7" s="207" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="207"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="197"/>
@@ -9096,7 +9105,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="197" t="s">
         <v>2</v>
@@ -9119,16 +9128,16 @@
         <v>42</v>
       </c>
       <c r="F9" s="197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="197"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="204">
+      <c r="A10" s="198">
         <v>2</v>
       </c>
-      <c r="B10" s="207" t="s">
-        <v>128</v>
+      <c r="B10" s="209" t="s">
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
@@ -9150,8 +9159,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="204"/>
-      <c r="B11" s="207"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
@@ -9178,15 +9187,15 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="210" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="210"/>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
+      <c r="A13" s="207" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="207"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="207"/>
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="197"/>
@@ -9197,7 +9206,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="197" t="s">
         <v>2</v>
@@ -9220,16 +9229,16 @@
         <v>42</v>
       </c>
       <c r="F15" s="197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" s="197"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="204">
-        <v>3</v>
-      </c>
-      <c r="B16" s="207" t="s">
-        <v>128</v>
+      <c r="A16" s="198">
+        <v>3</v>
+      </c>
+      <c r="B16" s="209" t="s">
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -9251,8 +9260,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="204"/>
-      <c r="B17" s="207"/>
+      <c r="A17" s="198"/>
+      <c r="B17" s="209"/>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
@@ -9270,8 +9279,8 @@
       <c r="G17" s="208"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="204"/>
-      <c r="B18" s="207"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
@@ -9289,8 +9298,8 @@
       <c r="G18" s="208"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="204"/>
-      <c r="B19" s="207"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="209"/>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
@@ -9317,15 +9326,15 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="210" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="A21" s="207" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="207"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="207"/>
+      <c r="G21" s="207"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="197"/>
@@ -9336,7 +9345,7 @@
         <v>41</v>
       </c>
       <c r="F22" s="197" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="197" t="s">
         <v>2</v>
@@ -9359,16 +9368,16 @@
         <v>42</v>
       </c>
       <c r="F23" s="197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G23" s="197"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="204">
+      <c r="A24" s="198">
         <v>4</v>
       </c>
-      <c r="B24" s="207" t="s">
-        <v>128</v>
+      <c r="B24" s="209" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -9390,8 +9399,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="204"/>
-      <c r="B25" s="207"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
@@ -9409,8 +9418,8 @@
       <c r="G25" s="208"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="204"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="198"/>
+      <c r="B26" s="209"/>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
@@ -9498,27 +9507,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="247"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="227"/>
       <c r="N1" s="69"/>
       <c r="O1" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="67" t="s">
         <v>61</v>
-      </c>
-      <c r="P1" s="67" t="s">
-        <v>62</v>
       </c>
       <c r="Q1" s="80"/>
     </row>
@@ -9529,25 +9538,25 @@
       <c r="D2" s="200"/>
       <c r="E2" s="200"/>
       <c r="F2" s="201"/>
-      <c r="G2" s="233" t="s">
+      <c r="G2" s="232" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
-      <c r="J2" s="233" t="s">
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="233"/>
-      <c r="L2" s="233"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
       <c r="M2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="N2" s="70"/>
       <c r="O2" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="75"/>
       <c r="R2" t="s">
@@ -9566,35 +9575,35 @@
       </c>
       <c r="D3" s="50"/>
       <c r="E3" s="159" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" s="233" t="s">
+      <c r="G3" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233" t="s">
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+      <c r="J3" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="233"/>
-      <c r="L3" s="233"/>
+      <c r="K3" s="232"/>
+      <c r="L3" s="232"/>
       <c r="M3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="70"/>
       <c r="O3" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="68" t="s">
-        <v>65</v>
-      </c>
       <c r="Q3" s="81"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="236">
+      <c r="A4" s="229">
         <v>1</v>
       </c>
       <c r="B4" s="44" t="s">
@@ -9653,7 +9662,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="236"/>
+      <c r="A5" s="229"/>
       <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
@@ -9742,74 +9751,74 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="237"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="237"/>
-      <c r="G7" s="237"/>
-      <c r="H7" s="237"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="237"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="237"/>
-      <c r="M7" s="237"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="230"/>
       <c r="N7" s="73"/>
       <c r="O7" s="83"/>
       <c r="P7" s="82"/>
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="234" t="s">
+      <c r="A8" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
-      <c r="E8" s="234"/>
-      <c r="F8" s="234"/>
-      <c r="G8" s="234"/>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234"/>
-      <c r="L8" s="234"/>
-      <c r="M8" s="234"/>
+      <c r="B8" s="228"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="228"/>
+      <c r="G8" s="228"/>
+      <c r="H8" s="228"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="228"/>
+      <c r="L8" s="228"/>
+      <c r="M8" s="228"/>
       <c r="N8" s="74"/>
       <c r="O8" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="67" t="s">
-        <v>62</v>
-      </c>
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="225"/>
-      <c r="B9" s="226"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
-      <c r="E9" s="226"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="238" t="s">
+      <c r="A9" s="220"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="221"/>
+      <c r="E9" s="221"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="238" t="s">
+      <c r="H9" s="231"/>
+      <c r="I9" s="231"/>
+      <c r="J9" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
+      <c r="K9" s="231"/>
+      <c r="L9" s="231"/>
       <c r="M9" s="49" t="s">
         <v>15</v>
       </c>
       <c r="N9" s="75"/>
       <c r="O9" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P9" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R9" s="9"/>
     </row>
@@ -9824,33 +9833,33 @@
         <v>7</v>
       </c>
       <c r="E10" s="159" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="238" t="s">
+      <c r="G10" s="231" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
-      <c r="K10" s="238"/>
-      <c r="L10" s="238"/>
+      <c r="H10" s="231"/>
+      <c r="I10" s="231"/>
+      <c r="J10" s="231"/>
+      <c r="K10" s="231"/>
+      <c r="L10" s="231"/>
       <c r="M10" s="49" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="75"/>
       <c r="O10" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="68" t="s">
-        <v>65</v>
-      </c>
       <c r="R10" s="9"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="236">
+      <c r="A11" s="229">
         <v>2</v>
       </c>
       <c r="B11" s="44" t="s">
@@ -9913,7 +9922,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="236"/>
+      <c r="A12" s="229"/>
       <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
@@ -10002,74 +10011,74 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
-      <c r="B14" s="237"/>
-      <c r="C14" s="237"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="237"/>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
-      <c r="I14" s="237"/>
-      <c r="J14" s="237"/>
-      <c r="K14" s="237"/>
-      <c r="L14" s="237"/>
-      <c r="M14" s="237"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="230"/>
+      <c r="D14" s="230"/>
+      <c r="E14" s="230"/>
+      <c r="F14" s="230"/>
+      <c r="G14" s="230"/>
+      <c r="H14" s="230"/>
+      <c r="I14" s="230"/>
+      <c r="J14" s="230"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="230"/>
+      <c r="M14" s="230"/>
       <c r="N14" s="73"/>
       <c r="O14" s="83"/>
       <c r="P14" s="82"/>
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="234" t="s">
+      <c r="A15" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="234"/>
-      <c r="F15" s="234"/>
-      <c r="G15" s="234"/>
-      <c r="H15" s="234"/>
-      <c r="I15" s="234"/>
-      <c r="J15" s="234"/>
-      <c r="K15" s="234"/>
-      <c r="L15" s="234"/>
-      <c r="M15" s="234"/>
+      <c r="B15" s="228"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="228"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="228"/>
+      <c r="I15" s="228"/>
+      <c r="J15" s="228"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="228"/>
+      <c r="M15" s="228"/>
       <c r="N15" s="74"/>
       <c r="O15" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="67" t="s">
-        <v>62</v>
-      </c>
       <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="225"/>
-      <c r="B16" s="226"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="227"/>
-      <c r="G16" s="238" t="s">
+      <c r="A16" s="220"/>
+      <c r="B16" s="221"/>
+      <c r="C16" s="221"/>
+      <c r="D16" s="221"/>
+      <c r="E16" s="221"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="238"/>
-      <c r="J16" s="238" t="s">
+      <c r="H16" s="231"/>
+      <c r="I16" s="231"/>
+      <c r="J16" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="238"/>
-      <c r="L16" s="238"/>
+      <c r="K16" s="231"/>
+      <c r="L16" s="231"/>
       <c r="M16" s="49" t="s">
         <v>15</v>
       </c>
       <c r="N16" s="75"/>
       <c r="O16" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P16" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R16" s="9"/>
     </row>
@@ -10085,33 +10094,33 @@
       </c>
       <c r="D17" s="154"/>
       <c r="E17" s="159" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="238" t="s">
+      <c r="G17" s="231" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="231"/>
+      <c r="J17" s="231"/>
+      <c r="K17" s="231"/>
+      <c r="L17" s="231"/>
       <c r="M17" s="49" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="75"/>
       <c r="O17" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="68" t="s">
-        <v>65</v>
-      </c>
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="236">
+      <c r="A18" s="229">
         <v>3</v>
       </c>
       <c r="B18" s="111" t="s">
@@ -10170,7 +10179,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="236"/>
+      <c r="A19" s="229"/>
       <c r="B19" s="111" t="s">
         <v>13</v>
       </c>
@@ -10227,7 +10236,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="236"/>
+      <c r="A20" s="229"/>
       <c r="B20" s="111" t="s">
         <v>16</v>
       </c>
@@ -10284,7 +10293,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="236"/>
+      <c r="A21" s="229"/>
       <c r="B21" s="111" t="s">
         <v>17</v>
       </c>
@@ -10316,7 +10325,7 @@
         <v>12</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L21" s="90">
         <f>0.4*2*I21</f>
@@ -10373,45 +10382,45 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
-      <c r="B23" s="237"/>
-      <c r="C23" s="237"/>
-      <c r="D23" s="237"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="237"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="237"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="230"/>
+      <c r="D23" s="230"/>
+      <c r="E23" s="230"/>
+      <c r="F23" s="230"/>
+      <c r="G23" s="230"/>
+      <c r="H23" s="230"/>
+      <c r="I23" s="230"/>
+      <c r="J23" s="230"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="230"/>
+      <c r="M23" s="230"/>
       <c r="N23" s="73"/>
       <c r="O23" s="83"/>
       <c r="P23" s="82"/>
       <c r="R23" s="9"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="239" t="s">
+      <c r="A24" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="239"/>
-      <c r="C24" s="239"/>
-      <c r="D24" s="239"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="234"/>
-      <c r="K24" s="234"/>
-      <c r="L24" s="234"/>
-      <c r="M24" s="234"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="228"/>
+      <c r="L24" s="228"/>
+      <c r="M24" s="228"/>
       <c r="N24" s="74"/>
       <c r="O24" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" s="78" t="s">
         <v>61</v>
-      </c>
-      <c r="P24" s="78" t="s">
-        <v>62</v>
       </c>
       <c r="R24" s="9"/>
     </row>
@@ -10422,25 +10431,25 @@
       <c r="D25" s="157"/>
       <c r="E25" s="157"/>
       <c r="F25" s="158"/>
-      <c r="G25" s="227" t="s">
+      <c r="G25" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="238"/>
-      <c r="I25" s="238"/>
-      <c r="J25" s="238" t="s">
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="238"/>
-      <c r="L25" s="238"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
       <c r="M25" s="49" t="s">
         <v>15</v>
       </c>
       <c r="N25" s="75"/>
       <c r="O25" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P25" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R25" s="9"/>
     </row>
@@ -10456,35 +10465,35 @@
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="159" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="227" t="s">
+      <c r="G26" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="238"/>
-      <c r="I26" s="238"/>
-      <c r="J26" s="238" t="s">
+      <c r="H26" s="231"/>
+      <c r="I26" s="231"/>
+      <c r="J26" s="231" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="238"/>
-      <c r="L26" s="238"/>
+      <c r="K26" s="231"/>
+      <c r="L26" s="231"/>
       <c r="M26" s="49" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="75"/>
       <c r="O26" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="68" t="s">
-        <v>65</v>
-      </c>
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="236">
+      <c r="A27" s="229">
         <v>4</v>
       </c>
       <c r="B27" s="111" t="s">
@@ -10543,7 +10552,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="236"/>
+      <c r="A28" s="229"/>
       <c r="B28" s="111" t="s">
         <v>13</v>
       </c>
@@ -10600,7 +10609,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="236"/>
+      <c r="A29" s="229"/>
       <c r="B29" s="111" t="s">
         <v>16</v>
       </c>
@@ -10723,27 +10732,27 @@
       <c r="P33" s="88"/>
     </row>
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O34" s="243">
+      <c r="O34" s="223">
         <f>O32+P32</f>
         <v>4899.8176000000003</v>
       </c>
-      <c r="P34" s="244"/>
+      <c r="P34" s="224"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="92"/>
       <c r="B37" s="93"/>
       <c r="C37" s="93"/>
-      <c r="D37" s="240" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="241"/>
-      <c r="F37" s="241"/>
-      <c r="G37" s="241"/>
-      <c r="H37" s="241"/>
-      <c r="I37" s="241"/>
-      <c r="J37" s="241"/>
-      <c r="K37" s="242"/>
+      <c r="D37" s="235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="236"/>
+      <c r="F37" s="236"/>
+      <c r="G37" s="236"/>
+      <c r="H37" s="236"/>
+      <c r="I37" s="236"/>
+      <c r="J37" s="236"/>
+      <c r="K37" s="237"/>
       <c r="L37" s="93"/>
       <c r="M37" s="94"/>
     </row>
@@ -10764,7 +10773,7 @@
     </row>
     <row r="39" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="79"/>
       <c r="C39" s="66">
@@ -10794,7 +10803,7 @@
         <v>12</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L39" s="3">
         <f>0.4*2*I39</f>
@@ -10879,7 +10888,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="79"/>
       <c r="C43" s="79"/>
@@ -10929,7 +10938,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B46" s="79"/>
       <c r="C46" s="79"/>
@@ -10974,7 +10983,7 @@
       <c r="I48" s="101"/>
       <c r="J48" s="101"/>
       <c r="K48" s="101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L48" s="101"/>
       <c r="M48" s="91">
@@ -10984,7 +10993,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="102">
         <f>4*0.65</f>
@@ -11006,7 +11015,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="103">
         <f>4*(0.65*2+0.5)</f>
@@ -11077,11 +11086,11 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="93"/>
       <c r="C59" s="107" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="93"/>
       <c r="E59" s="93"/>
@@ -11101,7 +11110,7 @@
       <c r="A60" s="95"/>
       <c r="B60" s="79"/>
       <c r="C60" s="103" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D60" s="79"/>
       <c r="E60" s="79"/>
@@ -11121,7 +11130,7 @@
       <c r="A61" s="95"/>
       <c r="B61" s="79"/>
       <c r="C61" s="79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61" s="79"/>
       <c r="E61" s="79"/>
@@ -11157,10 +11166,10 @@
     </row>
     <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="110" t="s">
         <v>79</v>
-      </c>
-      <c r="C63" s="110" t="s">
-        <v>80</v>
       </c>
       <c r="M63" s="85">
         <f>2*1.2*0.9*0.6</f>
@@ -11169,28 +11178,28 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="1"/>
-      <c r="E68" s="235" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="235"/>
-      <c r="G68" s="235"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
+      <c r="E68" s="233" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" s="233"/>
+      <c r="G68" s="233"/>
+      <c r="H68" s="233"/>
+      <c r="I68" s="233"/>
+      <c r="J68" s="233"/>
     </row>
     <row r="69" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="230" t="s">
-        <v>82</v>
+      <c r="A69" s="245" t="s">
+        <v>81</v>
       </c>
       <c r="B69" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="228" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="243" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="131">
@@ -11232,13 +11241,13 @@
       </c>
     </row>
     <row r="70" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="231"/>
+      <c r="A70" s="246"/>
       <c r="B70" s="121" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="229"/>
+        <v>88</v>
+      </c>
+      <c r="C70" s="244"/>
       <c r="D70" s="131" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E70" s="126"/>
       <c r="F70" s="126"/>
@@ -11254,9 +11263,9 @@
       </c>
     </row>
     <row r="71" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="232"/>
+      <c r="A71" s="247"/>
       <c r="B71" s="103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C71" s="112" t="s">
         <v>13</v>
@@ -11267,12 +11276,12 @@
       <c r="E71" s="115"/>
       <c r="F71" s="115"/>
       <c r="G71" s="115"/>
-      <c r="H71" s="223" t="s">
-        <v>83</v>
-      </c>
-      <c r="I71" s="224"/>
-      <c r="J71" s="224"/>
-      <c r="K71" s="224"/>
+      <c r="H71" s="241" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71" s="242"/>
+      <c r="J71" s="242"/>
+      <c r="K71" s="242"/>
       <c r="L71" s="115"/>
       <c r="M71" s="116"/>
       <c r="N71" s="114">
@@ -11280,7 +11289,7 @@
         <v>3.4748999999999999</v>
       </c>
       <c r="P71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11300,13 +11309,13 @@
     </row>
     <row r="73" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="119" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="113" t="s">
         <v>92</v>
-      </c>
-      <c r="B73" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="113" t="s">
-        <v>93</v>
       </c>
       <c r="D73" s="104">
         <v>27.5</v>
@@ -11314,12 +11323,12 @@
       <c r="E73" s="115"/>
       <c r="F73" s="115"/>
       <c r="G73" s="115"/>
-      <c r="H73" s="223" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" s="224"/>
-      <c r="J73" s="224"/>
-      <c r="K73" s="224"/>
+      <c r="H73" s="241" t="s">
+        <v>89</v>
+      </c>
+      <c r="I73" s="242"/>
+      <c r="J73" s="242"/>
+      <c r="K73" s="242"/>
       <c r="L73" s="115"/>
       <c r="M73" s="116"/>
       <c r="N73" s="120">
@@ -11345,13 +11354,13 @@
     </row>
     <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="118" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C75" s="113" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="104">
         <v>19.600000000000001</v>
@@ -11359,17 +11368,17 @@
       <c r="E75" s="115"/>
       <c r="F75" s="115"/>
       <c r="G75" s="115"/>
-      <c r="H75" s="223" t="s">
-        <v>87</v>
-      </c>
-      <c r="I75" s="224"/>
-      <c r="J75" s="224"/>
-      <c r="K75" s="224"/>
+      <c r="H75" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="242"/>
+      <c r="J75" s="242"/>
+      <c r="K75" s="242"/>
       <c r="L75" s="115"/>
       <c r="M75" s="116"/>
       <c r="N75" s="137"/>
       <c r="O75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11381,7 +11390,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G79" s="162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -11416,7 +11425,7 @@
         <v>12</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L80" s="90">
         <f>0.75*I80</f>
@@ -11429,14 +11438,14 @@
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="174" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C85" s="157"/>
       <c r="D85" s="157"/>
       <c r="E85" s="157"/>
       <c r="F85" s="157"/>
       <c r="G85" s="163" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H85" s="157"/>
       <c r="I85" s="157"/>
@@ -11476,7 +11485,7 @@
         <v>12</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L86" s="90">
         <f>0.75*I86</f>
@@ -11503,7 +11512,7 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C88" s="168"/>
       <c r="D88" s="168"/>
@@ -11521,7 +11530,7 @@
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="172" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="173"/>
       <c r="D89" s="173"/>
@@ -11576,7 +11585,7 @@
       <c r="E93" s="93"/>
       <c r="F93" s="93"/>
       <c r="G93" s="175" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H93" s="93"/>
       <c r="I93" s="93"/>
@@ -11601,7 +11610,7 @@
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="95" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C95" s="79">
         <v>14.5</v>
@@ -11616,7 +11625,7 @@
       <c r="I95" s="79"/>
       <c r="J95" s="79"/>
       <c r="K95" s="79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L95" s="79"/>
       <c r="M95" s="109">
@@ -11644,14 +11653,14 @@
       <c r="C99" s="93"/>
       <c r="D99" s="93"/>
       <c r="E99" s="93"/>
-      <c r="F99" s="220" t="s">
-        <v>122</v>
-      </c>
-      <c r="G99" s="221"/>
-      <c r="H99" s="221"/>
-      <c r="I99" s="221"/>
-      <c r="J99" s="221"/>
-      <c r="K99" s="222"/>
+      <c r="F99" s="238" t="s">
+        <v>121</v>
+      </c>
+      <c r="G99" s="239"/>
+      <c r="H99" s="239"/>
+      <c r="I99" s="239"/>
+      <c r="J99" s="239"/>
+      <c r="K99" s="240"/>
       <c r="L99" s="93"/>
       <c r="M99" s="94"/>
     </row>
@@ -11704,7 +11713,7 @@
       <c r="D103" s="93"/>
       <c r="E103" s="93"/>
       <c r="F103" s="175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G103" s="93"/>
       <c r="H103" s="93"/>
@@ -11730,7 +11739,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" s="191" t="s">
         <v>13</v>
@@ -11796,7 +11805,7 @@
       <c r="D107" s="79"/>
       <c r="E107" s="79"/>
       <c r="F107" s="186" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G107" s="79"/>
       <c r="H107" s="79"/>
@@ -11822,13 +11831,13 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B109" s="195" t="s">
         <v>13</v>
       </c>
       <c r="C109" s="127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D109" s="126"/>
       <c r="E109" s="126"/>
@@ -11863,6 +11872,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="F99:K99"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:L17"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="O34:P34"/>
@@ -11879,29 +11911,6 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="F99:K99"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="H71:K71"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
